--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18536.52898706273</v>
+        <v>6975.721464878303</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25247282.93907797</v>
+        <v>25273541.43443979</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19834607.1533386</v>
+        <v>19789658.07390573</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2030104.78204451</v>
+        <v>2051614.708049719</v>
       </c>
     </row>
     <row r="11">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.9932765704033</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="W17" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.71298018622084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>39.99327657040328</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="V18" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="W18" t="n">
-        <v>19.71298018622084</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="D19" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>19.71298018622084</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>39.99327657040328</v>
       </c>
       <c r="G19" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="U19" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="V20" t="n">
-        <v>22.38076769552775</v>
+        <v>39.99327657040327</v>
       </c>
       <c r="W20" t="n">
-        <v>19.71298018622084</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="U21" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>19.71298018622084</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>39.99327657040327</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>39.99327657040327</v>
       </c>
       <c r="F22" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="V22" t="n">
-        <v>19.71298018622083</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="G23" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="U23" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>51.60910058832086</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="H24" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5.249837761764043</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>51.60910058832092</v>
       </c>
       <c r="U24" t="n">
-        <v>46.35926282655682</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>51.60910058832086</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>51.60910058832091</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="W26" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="Y26" t="n">
-        <v>51.60910058832086</v>
+        <v>51.60910058832091</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5.24983776176404</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>51.60910058832086</v>
+        <v>46.35926282655688</v>
       </c>
       <c r="V27" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>51.60910058832091</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="W28" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="X28" t="n">
-        <v>51.60910058832086</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="F29" t="n">
-        <v>58.59343845177212</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="G29" t="n">
-        <v>51.60910058832086</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U30" t="n">
-        <v>51.60910058832086</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.60910058832086</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>58.59343845177212</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="H31" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,26 +3028,26 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>51.60910058832089</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="I33" t="n">
-        <v>5.249837761764041</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>46.35926282655682</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3189,64 +3189,64 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>58.59343845177215</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>58.59343845177215</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>58.59343845177215</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>51.60910058832089</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>58.59343845177213</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>58.59343845177213</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
       <c r="V34" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>58.59343845177215</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>51.60910058832089</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>58.59343845177213</v>
-      </c>
-      <c r="F35" t="n">
-        <v>58.59343845177213</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>51.60910058832089</v>
       </c>
       <c r="V36" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3435,17 +3435,17 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>51.60910058832089</v>
       </c>
-      <c r="G37" t="n">
-        <v>58.59343845177213</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>58.59343845177213</v>
-      </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="X37" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="T38" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="V38" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>51.60910058832089</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,70 +3584,70 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>58.59343845177215</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>58.59343845177215</v>
+      </c>
+      <c r="V39" t="n">
         <v>51.60910058832089</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>58.59343845177213</v>
-      </c>
-      <c r="G39" t="n">
-        <v>58.59343845177213</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>51.60910058832089</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U40" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>58.59343845177215</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>58.59343845177215</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>58.59343845177215</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>51.60910058832089</v>
       </c>
-      <c r="C41" t="n">
-        <v>58.59343845177213</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,22 +3821,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>51.60910058832089</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="H42" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U42" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="W43" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="X43" t="n">
         <v>51.60910058832089</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>75.94786280235938</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="V44" t="n">
-        <v>75.94786280235938</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>75.94786280235938</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>66.89487755631814</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>66.89487755631814</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>75.94786280235938</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>75.94786280235938</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>75.94786280235938</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>75.94786280235938</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>75.94786280235938</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.89487755631814</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.94786280235938</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.39729747173086</v>
+        <v>95.3609902902579</v>
       </c>
       <c r="C17" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915272</v>
       </c>
       <c r="D17" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915272</v>
       </c>
       <c r="E17" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915272</v>
       </c>
       <c r="F17" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915272</v>
       </c>
       <c r="G17" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915272</v>
       </c>
       <c r="H17" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="I17" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="J17" t="n">
-        <v>23.94742143421469</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="K17" t="n">
-        <v>23.94742143421469</v>
+        <v>13.00760177093457</v>
       </c>
       <c r="L17" t="n">
-        <v>31.87939445310687</v>
+        <v>39.58351986958235</v>
       </c>
       <c r="M17" t="n">
-        <v>51.8447025206325</v>
+        <v>81.98047155039922</v>
       </c>
       <c r="N17" t="n">
-        <v>74.00166253920497</v>
+        <v>126.9320426274875</v>
       </c>
       <c r="O17" t="n">
-        <v>89.52307078211101</v>
+        <v>163.9777557138805</v>
       </c>
       <c r="P17" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="R17" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="S17" t="n">
-        <v>89.52307078211101</v>
+        <v>141.2252603413631</v>
       </c>
       <c r="T17" t="n">
-        <v>89.52307078211101</v>
+        <v>141.2252603413631</v>
       </c>
       <c r="U17" t="n">
-        <v>89.52307078211101</v>
+        <v>141.2252603413631</v>
       </c>
       <c r="V17" t="n">
-        <v>66.91623472602237</v>
+        <v>95.3609902902579</v>
       </c>
       <c r="W17" t="n">
-        <v>44.30939866993373</v>
+        <v>95.3609902902579</v>
       </c>
       <c r="X17" t="n">
-        <v>44.30939866993373</v>
+        <v>95.3609902902579</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.39729747173086</v>
+        <v>95.3609902902579</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.79046141564222</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="C18" t="n">
-        <v>1.79046141564222</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="D18" t="n">
-        <v>1.79046141564222</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="E18" t="n">
-        <v>1.79046141564222</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="F18" t="n">
-        <v>1.79046141564222</v>
+        <v>44.02969924906095</v>
       </c>
       <c r="G18" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="H18" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="I18" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="J18" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="K18" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="L18" t="n">
-        <v>20.55109058347969</v>
+        <v>37.23412548306801</v>
       </c>
       <c r="M18" t="n">
-        <v>42.70805060205217</v>
+        <v>82.1856965601562</v>
       </c>
       <c r="N18" t="n">
-        <v>55.72645273902333</v>
+        <v>127.1372676372444</v>
       </c>
       <c r="O18" t="n">
-        <v>77.88341275759581</v>
+        <v>167.6583687169006</v>
       </c>
       <c r="P18" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="R18" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="S18" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="T18" t="n">
-        <v>66.91623472602237</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="U18" t="n">
-        <v>44.30939866993373</v>
+        <v>135.7582393512713</v>
       </c>
       <c r="V18" t="n">
-        <v>21.70256261384509</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="W18" t="n">
-        <v>1.79046141564222</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="X18" t="n">
-        <v>1.79046141564222</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.79046141564222</v>
+        <v>89.89396930016613</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.91623472602237</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="C19" t="n">
-        <v>66.91623472602237</v>
+        <v>44.02969924906095</v>
       </c>
       <c r="D19" t="n">
-        <v>44.30939866993373</v>
+        <v>44.02969924906095</v>
       </c>
       <c r="E19" t="n">
-        <v>24.39729747173086</v>
+        <v>44.02969924906095</v>
       </c>
       <c r="F19" t="n">
-        <v>24.39729747173086</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="G19" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="I19" t="n">
-        <v>1.79046141564222</v>
+        <v>3.63245018804753</v>
       </c>
       <c r="J19" t="n">
-        <v>1.79046141564222</v>
+        <v>42.05300768203703</v>
       </c>
       <c r="K19" t="n">
-        <v>23.94742143421469</v>
+        <v>87.00457875912522</v>
       </c>
       <c r="L19" t="n">
-        <v>45.20915074496605</v>
+        <v>131.9561498362134</v>
       </c>
       <c r="M19" t="n">
-        <v>67.36611076353853</v>
+        <v>176.9077209133016</v>
       </c>
       <c r="N19" t="n">
-        <v>67.36611076353853</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="O19" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="P19" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="R19" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023765</v>
       </c>
       <c r="S19" t="n">
-        <v>89.52307078211101</v>
+        <v>135.7582393512713</v>
       </c>
       <c r="T19" t="n">
-        <v>89.52307078211101</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="U19" t="n">
-        <v>66.91623472602237</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="V19" t="n">
-        <v>66.91623472602237</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="W19" t="n">
-        <v>66.91623472602237</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="X19" t="n">
-        <v>66.91623472602237</v>
+        <v>89.89396930016613</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.91623472602237</v>
+        <v>89.89396930016613</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="C20" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="D20" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="E20" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="F20" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="G20" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="H20" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="I20" t="n">
-        <v>1.79046141564222</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="J20" t="n">
-        <v>1.79046141564222</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="K20" t="n">
-        <v>23.94742143421469</v>
+        <v>13.00760177093458</v>
       </c>
       <c r="L20" t="n">
-        <v>31.87939445310687</v>
+        <v>39.58351986958235</v>
       </c>
       <c r="M20" t="n">
-        <v>51.8447025206325</v>
+        <v>81.98047155039923</v>
       </c>
       <c r="N20" t="n">
-        <v>74.00166253920497</v>
+        <v>126.9320426274874</v>
       </c>
       <c r="O20" t="n">
-        <v>89.52307078211101</v>
+        <v>163.9777557138804</v>
       </c>
       <c r="P20" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023764</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023764</v>
       </c>
       <c r="R20" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023764</v>
       </c>
       <c r="S20" t="n">
-        <v>89.52307078211101</v>
+        <v>135.7582393512712</v>
       </c>
       <c r="T20" t="n">
-        <v>89.52307078211101</v>
+        <v>89.89396930016608</v>
       </c>
       <c r="U20" t="n">
-        <v>89.52307078211101</v>
+        <v>44.02969924906093</v>
       </c>
       <c r="V20" t="n">
-        <v>66.91623472602237</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="W20" t="n">
-        <v>47.0041335278195</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="X20" t="n">
-        <v>47.0041335278195</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.0041335278195</v>
+        <v>3.632450188047527</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915267</v>
       </c>
       <c r="C21" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915267</v>
       </c>
       <c r="D21" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915267</v>
       </c>
       <c r="E21" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915267</v>
       </c>
       <c r="F21" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="G21" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="H21" t="n">
-        <v>1.79046141564222</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="I21" t="n">
-        <v>1.79046141564222</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="J21" t="n">
-        <v>1.79046141564222</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="K21" t="n">
-        <v>1.79046141564222</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="L21" t="n">
-        <v>20.55109058347969</v>
+        <v>37.23412548306801</v>
       </c>
       <c r="M21" t="n">
-        <v>42.70805060205217</v>
+        <v>71.45797305435997</v>
       </c>
       <c r="N21" t="n">
-        <v>55.72645273902333</v>
+        <v>116.4095441314481</v>
       </c>
       <c r="O21" t="n">
-        <v>77.88341275759581</v>
+        <v>156.9306452111044</v>
       </c>
       <c r="P21" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023764</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023764</v>
       </c>
       <c r="R21" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023764</v>
       </c>
       <c r="S21" t="n">
-        <v>66.91623472602237</v>
+        <v>135.7582393512712</v>
       </c>
       <c r="T21" t="n">
-        <v>66.91623472602237</v>
+        <v>89.89396930016608</v>
       </c>
       <c r="U21" t="n">
-        <v>44.30939866993373</v>
+        <v>89.89396930016608</v>
       </c>
       <c r="V21" t="n">
-        <v>24.39729747173086</v>
+        <v>89.89396930016608</v>
       </c>
       <c r="W21" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915267</v>
       </c>
       <c r="X21" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915267</v>
       </c>
       <c r="Y21" t="n">
-        <v>24.39729747173086</v>
+        <v>49.49672023915267</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.0041335278195</v>
+        <v>44.02969924906093</v>
       </c>
       <c r="C22" t="n">
-        <v>47.0041335278195</v>
+        <v>44.02969924906093</v>
       </c>
       <c r="D22" t="n">
-        <v>47.0041335278195</v>
+        <v>44.02969924906093</v>
       </c>
       <c r="E22" t="n">
-        <v>47.0041335278195</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="F22" t="n">
-        <v>24.39729747173086</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="G22" t="n">
-        <v>1.79046141564222</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79046141564222</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="I22" t="n">
-        <v>1.79046141564222</v>
+        <v>3.632450188047527</v>
       </c>
       <c r="J22" t="n">
-        <v>23.94742143421469</v>
+        <v>42.05300768203703</v>
       </c>
       <c r="K22" t="n">
-        <v>46.10438145278717</v>
+        <v>42.05300768203703</v>
       </c>
       <c r="L22" t="n">
-        <v>46.10438145278717</v>
+        <v>87.00457875912517</v>
       </c>
       <c r="M22" t="n">
-        <v>46.10438145278717</v>
+        <v>131.9561498362133</v>
       </c>
       <c r="N22" t="n">
-        <v>67.36611076353853</v>
+        <v>176.9077209133015</v>
       </c>
       <c r="O22" t="n">
-        <v>67.36611076353853</v>
+        <v>176.9077209133015</v>
       </c>
       <c r="P22" t="n">
-        <v>89.52307078211101</v>
+        <v>176.9077209133015</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023764</v>
       </c>
       <c r="R22" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023764</v>
       </c>
       <c r="S22" t="n">
-        <v>89.52307078211101</v>
+        <v>181.6225094023764</v>
       </c>
       <c r="T22" t="n">
-        <v>89.52307078211101</v>
+        <v>135.7582393512712</v>
       </c>
       <c r="U22" t="n">
-        <v>89.52307078211101</v>
+        <v>89.89396930016608</v>
       </c>
       <c r="V22" t="n">
-        <v>69.61096958390814</v>
+        <v>89.89396930016608</v>
       </c>
       <c r="W22" t="n">
-        <v>47.0041335278195</v>
+        <v>44.02969924906093</v>
       </c>
       <c r="X22" t="n">
-        <v>47.0041335278195</v>
+        <v>44.02969924906093</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.0041335278195</v>
+        <v>44.02969924906093</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63.87276644156816</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="C23" t="n">
-        <v>63.87276644156816</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="D23" t="n">
-        <v>63.87276644156816</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="E23" t="n">
-        <v>63.87276644156816</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="F23" t="n">
-        <v>63.87276644156816</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G23" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H23" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I23" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J23" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K23" t="n">
-        <v>20.9750414314115</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L23" t="n">
         <v>56.12642129272579</v>
@@ -6007,34 +6007,34 @@
         <v>208.9146559283693</v>
       </c>
       <c r="P23" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q23" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R23" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S23" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T23" t="n">
-        <v>234.3737538070885</v>
+        <v>182.243349172421</v>
       </c>
       <c r="U23" t="n">
-        <v>175.1884624416621</v>
+        <v>182.243349172421</v>
       </c>
       <c r="V23" t="n">
         <v>123.0580578069946</v>
       </c>
       <c r="W23" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="X23" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="Y23" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156818</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69.17563286759244</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="C24" t="n">
-        <v>69.17563286759244</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="D24" t="n">
-        <v>69.17563286759244</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="E24" t="n">
-        <v>69.17563286759244</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="F24" t="n">
-        <v>69.17563286759244</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="G24" t="n">
-        <v>69.17563286759244</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H24" t="n">
-        <v>9.990341502166057</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I24" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J24" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K24" t="n">
-        <v>20.41979942316996</v>
+        <v>20.41979942316997</v>
       </c>
       <c r="L24" t="n">
-        <v>60.33448016499852</v>
+        <v>60.33448016499857</v>
       </c>
       <c r="M24" t="n">
-        <v>114.7525615466167</v>
+        <v>98.68348873885583</v>
       </c>
       <c r="N24" t="n">
         <v>156.6909928061102</v>
@@ -6086,34 +6086,34 @@
         <v>204.1298114188035</v>
       </c>
       <c r="P24" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q24" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R24" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S24" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T24" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="U24" t="n">
-        <v>187.5462155984452</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="V24" t="n">
-        <v>128.3609242330188</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="W24" t="n">
-        <v>69.17563286759244</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="X24" t="n">
-        <v>69.17563286759244</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="Y24" t="n">
-        <v>69.17563286759244</v>
+        <v>123.0580578069946</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>175.1884624416621</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="C25" t="n">
-        <v>175.1884624416621</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="D25" t="n">
-        <v>175.1884624416621</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E25" t="n">
-        <v>175.1884624416621</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F25" t="n">
-        <v>175.1884624416621</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G25" t="n">
-        <v>116.0031710762357</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H25" t="n">
-        <v>56.81787971080931</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I25" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J25" t="n">
-        <v>44.83138947434913</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K25" t="n">
-        <v>102.8388935416035</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="L25" t="n">
-        <v>116.278331201786</v>
+        <v>62.6949791433962</v>
       </c>
       <c r="M25" t="n">
-        <v>118.3587456725797</v>
+        <v>120.7024832106506</v>
       </c>
       <c r="N25" t="n">
-        <v>176.3662497398341</v>
+        <v>178.709987277905</v>
       </c>
       <c r="O25" t="n">
-        <v>176.3662497398341</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="P25" t="n">
-        <v>176.3662497398341</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q25" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R25" t="n">
-        <v>175.1884624416621</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S25" t="n">
-        <v>175.1884624416621</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T25" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="U25" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="V25" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="W25" t="n">
-        <v>175.1884624416621</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="X25" t="n">
-        <v>175.1884624416621</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="Y25" t="n">
-        <v>175.1884624416621</v>
+        <v>4.687475076141772</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="C26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="D26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K26" t="n">
         <v>20.97504143141154</v>
       </c>
       <c r="L26" t="n">
-        <v>56.12642129272578</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M26" t="n">
         <v>108.0652264990963</v>
@@ -6244,34 +6244,34 @@
         <v>208.9146559283693</v>
       </c>
       <c r="P26" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q26" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R26" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S26" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T26" t="n">
-        <v>175.1884624416621</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="U26" t="n">
-        <v>175.1884624416621</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="V26" t="n">
-        <v>116.0031710762357</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="W26" t="n">
-        <v>56.81787971080931</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="X26" t="n">
-        <v>56.81787971080931</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>63.87276644156816</v>
+        <v>128.3609242330189</v>
       </c>
       <c r="C27" t="n">
-        <v>63.87276644156816</v>
+        <v>128.3609242330189</v>
       </c>
       <c r="D27" t="n">
-        <v>63.87276644156816</v>
+        <v>128.3609242330189</v>
       </c>
       <c r="E27" t="n">
-        <v>63.87276644156816</v>
+        <v>128.3609242330189</v>
       </c>
       <c r="F27" t="n">
-        <v>4.68747507614177</v>
+        <v>128.3609242330189</v>
       </c>
       <c r="G27" t="n">
-        <v>4.68747507614177</v>
+        <v>69.17563286759247</v>
       </c>
       <c r="H27" t="n">
-        <v>4.68747507614177</v>
+        <v>9.990341502166055</v>
       </c>
       <c r="I27" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J27" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K27" t="n">
-        <v>4.68747507614177</v>
+        <v>20.41979942316997</v>
       </c>
       <c r="L27" t="n">
-        <v>44.60215581797036</v>
+        <v>60.33448016499857</v>
       </c>
       <c r="M27" t="n">
-        <v>99.02023719958851</v>
+        <v>98.68348873885583</v>
       </c>
       <c r="N27" t="n">
-        <v>157.0277412668429</v>
+        <v>156.6909928061102</v>
       </c>
       <c r="O27" t="n">
-        <v>204.4665598795362</v>
+        <v>204.1298114188035</v>
       </c>
       <c r="P27" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q27" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R27" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S27" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T27" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U27" t="n">
-        <v>182.2433491724209</v>
+        <v>128.3609242330189</v>
       </c>
       <c r="V27" t="n">
-        <v>123.0580578069946</v>
+        <v>128.3609242330189</v>
       </c>
       <c r="W27" t="n">
-        <v>63.87276644156816</v>
+        <v>128.3609242330189</v>
       </c>
       <c r="X27" t="n">
-        <v>63.87276644156816</v>
+        <v>128.3609242330189</v>
       </c>
       <c r="Y27" t="n">
-        <v>63.87276644156816</v>
+        <v>128.3609242330189</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.0580578069946</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="C28" t="n">
-        <v>123.0580578069946</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="D28" t="n">
-        <v>63.87276644156816</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="E28" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="F28" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="G28" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="H28" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="I28" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J28" t="n">
         <v>44.83138947434913</v>
@@ -6390,46 +6390,46 @@
         <v>44.83138947434913</v>
       </c>
       <c r="L28" t="n">
-        <v>102.8388935416035</v>
+        <v>45.55297413408002</v>
       </c>
       <c r="M28" t="n">
-        <v>104.9193080123972</v>
+        <v>60.35124160532532</v>
       </c>
       <c r="N28" t="n">
         <v>118.3587456725797</v>
       </c>
       <c r="O28" t="n">
-        <v>118.3587456725797</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="P28" t="n">
-        <v>176.3662497398341</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q28" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R28" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S28" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T28" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U28" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="V28" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="W28" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="X28" t="n">
-        <v>123.0580578069946</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.0580578069946</v>
+        <v>56.81787971080936</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="C29" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="D29" t="n">
-        <v>116.0031710762357</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="E29" t="n">
-        <v>116.0031710762357</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="F29" t="n">
-        <v>56.81787971080931</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G29" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H29" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I29" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J29" t="n">
-        <v>4.687475076141766</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K29" t="n">
-        <v>20.97504143141152</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L29" t="n">
-        <v>56.12642129272574</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M29" t="n">
         <v>108.0652264990963</v>
@@ -6478,37 +6478,37 @@
         <v>162.7130482674823</v>
       </c>
       <c r="O29" t="n">
-        <v>208.9146559283693</v>
+        <v>208.9146559283694</v>
       </c>
       <c r="P29" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q29" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R29" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S29" t="n">
-        <v>175.1884624416621</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T29" t="n">
-        <v>175.1884624416621</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U29" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="V29" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="W29" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="X29" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="Y29" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63.87276644156816</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="C30" t="n">
-        <v>63.87276644156816</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="D30" t="n">
-        <v>63.87276644156816</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="E30" t="n">
-        <v>63.87276644156816</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="F30" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="G30" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H30" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I30" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J30" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K30" t="n">
-        <v>4.68747507614177</v>
+        <v>20.41979942316997</v>
       </c>
       <c r="L30" t="n">
-        <v>44.60215581797036</v>
+        <v>60.33448016499857</v>
       </c>
       <c r="M30" t="n">
-        <v>99.02023719958851</v>
+        <v>114.7525615466167</v>
       </c>
       <c r="N30" t="n">
-        <v>156.6909928061102</v>
+        <v>156.6909928061103</v>
       </c>
       <c r="O30" t="n">
-        <v>204.1298114188035</v>
+        <v>204.1298114188036</v>
       </c>
       <c r="P30" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q30" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R30" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S30" t="n">
-        <v>175.1884624416621</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T30" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="U30" t="n">
-        <v>123.0580578069946</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="V30" t="n">
-        <v>63.87276644156816</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="W30" t="n">
-        <v>63.87276644156816</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="X30" t="n">
-        <v>63.87276644156816</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="Y30" t="n">
-        <v>63.87276644156816</v>
+        <v>56.81787971080934</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>182.2433491724209</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="C31" t="n">
-        <v>182.2433491724209</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="D31" t="n">
-        <v>182.2433491724209</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="E31" t="n">
-        <v>123.0580578069946</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="F31" t="n">
-        <v>123.0580578069946</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="G31" t="n">
-        <v>63.87276644156816</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="H31" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="I31" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J31" t="n">
-        <v>4.68747507614177</v>
+        <v>44.83138947434913</v>
       </c>
       <c r="K31" t="n">
-        <v>4.68747507614177</v>
+        <v>102.8388935416036</v>
       </c>
       <c r="L31" t="n">
-        <v>58.27082713453162</v>
+        <v>103.5604782013345</v>
       </c>
       <c r="M31" t="n">
-        <v>60.35124160532527</v>
+        <v>161.5679822685889</v>
       </c>
       <c r="N31" t="n">
-        <v>118.3587456725797</v>
+        <v>166.781227125131</v>
       </c>
       <c r="O31" t="n">
-        <v>176.3662497398341</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="P31" t="n">
-        <v>176.3662497398341</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="Q31" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R31" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="S31" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T31" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U31" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="V31" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="W31" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="X31" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="Y31" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="C32" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="D32" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="E32" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="F32" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="G32" t="n">
-        <v>4.68747507614177</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="H32" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I32" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J32" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K32" t="n">
-        <v>20.97504143141152</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L32" t="n">
-        <v>56.12642129272574</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M32" t="n">
         <v>108.0652264990963</v>
@@ -6715,34 +6715,34 @@
         <v>162.7130482674823</v>
       </c>
       <c r="O32" t="n">
-        <v>208.9146559283693</v>
+        <v>208.9146559283694</v>
       </c>
       <c r="P32" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q32" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R32" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S32" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T32" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="U32" t="n">
-        <v>234.3737538070885</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="V32" t="n">
-        <v>234.3737538070885</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="W32" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="X32" t="n">
-        <v>116.0031710762357</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="Y32" t="n">
         <v>56.81787971080934</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>187.5462155984453</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5462155984453</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="D33" t="n">
-        <v>187.5462155984453</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="E33" t="n">
-        <v>187.5462155984453</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="F33" t="n">
-        <v>128.3609242330189</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="G33" t="n">
-        <v>69.17563286759245</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="H33" t="n">
-        <v>9.990341502166055</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I33" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J33" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K33" t="n">
-        <v>20.41979942316996</v>
+        <v>20.41979942316997</v>
       </c>
       <c r="L33" t="n">
-        <v>60.33448016499854</v>
+        <v>60.33448016499857</v>
       </c>
       <c r="M33" t="n">
         <v>114.7525615466167</v>
       </c>
       <c r="N33" t="n">
-        <v>156.6909928061102</v>
+        <v>156.6909928061103</v>
       </c>
       <c r="O33" t="n">
-        <v>204.1298114188035</v>
+        <v>204.1298114188036</v>
       </c>
       <c r="P33" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q33" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R33" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S33" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T33" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U33" t="n">
-        <v>187.5462155984453</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="V33" t="n">
-        <v>187.5462155984453</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="W33" t="n">
-        <v>187.5462155984453</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="X33" t="n">
-        <v>187.5462155984453</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.5462155984453</v>
+        <v>123.0580578069946</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.1884624416621</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="C34" t="n">
         <v>123.0580578069946</v>
@@ -6846,64 +6846,64 @@
         <v>123.0580578069946</v>
       </c>
       <c r="F34" t="n">
-        <v>63.87276644156817</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="G34" t="n">
-        <v>63.87276644156817</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="H34" t="n">
-        <v>63.87276644156817</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="I34" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J34" t="n">
         <v>44.83138947434913</v>
       </c>
       <c r="K34" t="n">
-        <v>44.83138947434913</v>
+        <v>102.8388935416036</v>
       </c>
       <c r="L34" t="n">
-        <v>102.8388935416035</v>
+        <v>111.065086345244</v>
       </c>
       <c r="M34" t="n">
-        <v>160.846397608858</v>
+        <v>113.1455008160377</v>
       </c>
       <c r="N34" t="n">
-        <v>176.3662497398341</v>
+        <v>118.3587456725798</v>
       </c>
       <c r="O34" t="n">
-        <v>176.3662497398341</v>
+        <v>118.3587456725798</v>
       </c>
       <c r="P34" t="n">
-        <v>176.3662497398341</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="Q34" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R34" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="S34" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T34" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U34" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="V34" t="n">
-        <v>175.1884624416621</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="W34" t="n">
-        <v>175.1884624416621</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="X34" t="n">
-        <v>175.1884624416621</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.1884624416621</v>
+        <v>123.0580578069946</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="C35" t="n">
-        <v>182.2433491724209</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="D35" t="n">
-        <v>182.2433491724209</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="E35" t="n">
-        <v>123.0580578069946</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="F35" t="n">
-        <v>63.87276644156817</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G35" t="n">
-        <v>63.87276644156817</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H35" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I35" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J35" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K35" t="n">
         <v>20.97504143141154</v>
       </c>
       <c r="L35" t="n">
-        <v>56.12642129272578</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M35" t="n">
         <v>108.0652264990963</v>
@@ -6952,37 +6952,37 @@
         <v>162.7130482674823</v>
       </c>
       <c r="O35" t="n">
-        <v>208.9146559283693</v>
+        <v>208.9146559283694</v>
       </c>
       <c r="P35" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q35" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R35" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S35" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T35" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U35" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="V35" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="W35" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="X35" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="C36" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="D36" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="E36" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="F36" t="n">
-        <v>63.87276644156817</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="G36" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H36" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I36" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J36" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K36" t="n">
-        <v>20.41979942316996</v>
+        <v>20.41979942316997</v>
       </c>
       <c r="L36" t="n">
-        <v>60.33448016499854</v>
+        <v>60.33448016499857</v>
       </c>
       <c r="M36" t="n">
         <v>114.7525615466167</v>
       </c>
       <c r="N36" t="n">
-        <v>156.6909928061102</v>
+        <v>156.6909928061103</v>
       </c>
       <c r="O36" t="n">
-        <v>204.1298114188035</v>
+        <v>204.1298114188036</v>
       </c>
       <c r="P36" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q36" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R36" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S36" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T36" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U36" t="n">
-        <v>182.2433491724209</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="V36" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="W36" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="X36" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="Y36" t="n">
-        <v>123.0580578069946</v>
+        <v>63.87276644156819</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="C37" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="D37" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="E37" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="F37" t="n">
-        <v>123.0580578069946</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="G37" t="n">
-        <v>63.87276644156817</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="H37" t="n">
-        <v>63.87276644156817</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="I37" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J37" t="n">
         <v>44.83138947434913</v>
       </c>
       <c r="K37" t="n">
-        <v>60.35124160532528</v>
+        <v>59.62965694559443</v>
       </c>
       <c r="L37" t="n">
-        <v>118.3587456725797</v>
+        <v>60.35124160532533</v>
       </c>
       <c r="M37" t="n">
-        <v>176.3662497398341</v>
+        <v>118.3587456725798</v>
       </c>
       <c r="N37" t="n">
-        <v>234.3737538070885</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="P37" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q37" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R37" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S37" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T37" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="U37" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="V37" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="W37" t="n">
-        <v>234.3737538070885</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="X37" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="Y37" t="n">
-        <v>175.1884624416621</v>
+        <v>56.81787971080934</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="C38" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="D38" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="E38" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="F38" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G38" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H38" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I38" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J38" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K38" t="n">
-        <v>20.97504143141153</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L38" t="n">
-        <v>56.12642129272574</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M38" t="n">
         <v>108.0652264990963</v>
@@ -7189,37 +7189,37 @@
         <v>162.7130482674823</v>
       </c>
       <c r="O38" t="n">
-        <v>208.9146559283693</v>
+        <v>208.9146559283694</v>
       </c>
       <c r="P38" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q38" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R38" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S38" t="n">
-        <v>234.3737538070885</v>
+        <v>182.243349172421</v>
       </c>
       <c r="T38" t="n">
-        <v>175.1884624416621</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="U38" t="n">
-        <v>175.1884624416621</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="V38" t="n">
-        <v>116.0031710762357</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="W38" t="n">
-        <v>63.87276644156817</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="X38" t="n">
-        <v>63.87276644156817</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="Y38" t="n">
-        <v>63.87276644156817</v>
+        <v>63.87276644156819</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>175.1884624416621</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="C39" t="n">
-        <v>175.1884624416621</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="D39" t="n">
-        <v>123.0580578069946</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E39" t="n">
-        <v>123.0580578069946</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F39" t="n">
-        <v>63.87276644156817</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G39" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H39" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I39" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J39" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K39" t="n">
-        <v>20.41979942316996</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="L39" t="n">
-        <v>60.33448016499854</v>
+        <v>44.26540735723767</v>
       </c>
       <c r="M39" t="n">
-        <v>114.7525615466167</v>
+        <v>98.68348873885584</v>
       </c>
       <c r="N39" t="n">
-        <v>172.7600656138711</v>
+        <v>156.6909928061103</v>
       </c>
       <c r="O39" t="n">
-        <v>220.1988842265644</v>
+        <v>204.1298114188036</v>
       </c>
       <c r="P39" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q39" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R39" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S39" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T39" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U39" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="V39" t="n">
-        <v>234.3737538070885</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="W39" t="n">
-        <v>234.3737538070885</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="X39" t="n">
-        <v>175.1884624416621</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.1884624416621</v>
+        <v>63.87276644156819</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.81787971080934</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="C40" t="n">
-        <v>56.81787971080934</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="D40" t="n">
-        <v>56.81787971080934</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="E40" t="n">
-        <v>4.68747507614177</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="F40" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="G40" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H40" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I40" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J40" t="n">
-        <v>44.83138947434913</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K40" t="n">
-        <v>44.83138947434913</v>
+        <v>62.6949791433962</v>
       </c>
       <c r="L40" t="n">
-        <v>58.27082713453163</v>
+        <v>120.7024832106506</v>
       </c>
       <c r="M40" t="n">
-        <v>60.35124160532528</v>
+        <v>178.709987277905</v>
       </c>
       <c r="N40" t="n">
-        <v>118.3587456725797</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="O40" t="n">
-        <v>176.3662497398341</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="P40" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q40" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R40" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S40" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T40" t="n">
-        <v>175.1884624416621</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U40" t="n">
-        <v>116.0031710762357</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="V40" t="n">
-        <v>116.0031710762357</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="W40" t="n">
-        <v>116.0031710762357</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="X40" t="n">
-        <v>116.0031710762357</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.81787971080934</v>
+        <v>175.1884624416622</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.87276644156817</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="C41" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="D41" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="E41" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="F41" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="G41" t="n">
-        <v>4.68747507614177</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="H41" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I41" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J41" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K41" t="n">
-        <v>20.97504143141156</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L41" t="n">
-        <v>56.12642129272578</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M41" t="n">
         <v>108.0652264990963</v>
@@ -7426,37 +7426,37 @@
         <v>162.7130482674823</v>
       </c>
       <c r="O41" t="n">
-        <v>208.9146559283693</v>
+        <v>208.9146559283694</v>
       </c>
       <c r="P41" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R41" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S41" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T41" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U41" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="V41" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="W41" t="n">
-        <v>175.1884624416621</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="X41" t="n">
-        <v>116.0031710762357</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="Y41" t="n">
-        <v>116.0031710762357</v>
+        <v>123.0580578069946</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>116.0031710762357</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="C42" t="n">
-        <v>63.87276644156817</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="D42" t="n">
-        <v>63.87276644156817</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="E42" t="n">
-        <v>63.87276644156817</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="F42" t="n">
-        <v>63.87276644156817</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="G42" t="n">
-        <v>63.87276644156817</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H42" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I42" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J42" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K42" t="n">
-        <v>20.41979942316996</v>
+        <v>20.41979942316997</v>
       </c>
       <c r="L42" t="n">
-        <v>60.33448016499854</v>
+        <v>60.33448016499857</v>
       </c>
       <c r="M42" t="n">
         <v>114.7525615466167</v>
       </c>
       <c r="N42" t="n">
-        <v>156.6909928061102</v>
+        <v>172.7600656138712</v>
       </c>
       <c r="O42" t="n">
-        <v>204.1298114188035</v>
+        <v>220.1988842265645</v>
       </c>
       <c r="P42" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q42" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R42" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S42" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T42" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U42" t="n">
-        <v>175.1884624416621</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="V42" t="n">
-        <v>116.0031710762357</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="W42" t="n">
-        <v>116.0031710762357</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="X42" t="n">
-        <v>116.0031710762357</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="Y42" t="n">
-        <v>116.0031710762357</v>
+        <v>116.0031710762358</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="C43" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="D43" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E43" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F43" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G43" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H43" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I43" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J43" t="n">
-        <v>4.68747507614177</v>
+        <v>44.83138947434913</v>
       </c>
       <c r="K43" t="n">
-        <v>62.69497914339618</v>
+        <v>102.8388935416036</v>
       </c>
       <c r="L43" t="n">
-        <v>113.1455008160376</v>
+        <v>160.846397608858</v>
       </c>
       <c r="M43" t="n">
-        <v>171.153004883292</v>
+        <v>171.1530048832921</v>
       </c>
       <c r="N43" t="n">
-        <v>176.3662497398341</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="O43" t="n">
-        <v>176.3662497398341</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="P43" t="n">
-        <v>234.3737538070885</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="Q43" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R43" t="n">
-        <v>175.1884624416621</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S43" t="n">
-        <v>175.1884624416621</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T43" t="n">
-        <v>175.1884624416621</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U43" t="n">
-        <v>175.1884624416621</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="V43" t="n">
-        <v>175.1884624416621</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="W43" t="n">
-        <v>116.0031710762357</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="X43" t="n">
-        <v>63.87276644156817</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.07582902418875</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="C44" t="n">
-        <v>6.07582902418875</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="D44" t="n">
-        <v>6.07582902418875</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="E44" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F44" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G44" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H44" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I44" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J44" t="n">
-        <v>8.518653200747835</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K44" t="n">
-        <v>32.72891329418854</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L44" t="n">
-        <v>77.70909531020664</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M44" t="n">
-        <v>140.5843367211121</v>
+        <v>108.0652264990963</v>
       </c>
       <c r="N44" t="n">
-        <v>206.3455576655146</v>
+        <v>162.7130482674823</v>
       </c>
       <c r="O44" t="n">
-        <v>263.0412330294155</v>
+        <v>208.9146559283694</v>
       </c>
       <c r="P44" t="n">
-        <v>297.4567749038201</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q44" t="n">
-        <v>303.7914512094375</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R44" t="n">
-        <v>303.7914512094375</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S44" t="n">
-        <v>227.0764382777614</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T44" t="n">
-        <v>227.0764382777614</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U44" t="n">
-        <v>227.0764382777614</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="V44" t="n">
-        <v>150.3614253460852</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="W44" t="n">
-        <v>73.6464124144091</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="X44" t="n">
-        <v>6.07582902418875</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.07582902418875</v>
+        <v>116.0031710762358</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.07582902418875</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="C45" t="n">
-        <v>6.07582902418875</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="D45" t="n">
-        <v>6.07582902418875</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="E45" t="n">
-        <v>6.07582902418875</v>
+        <v>63.87276644156819</v>
       </c>
       <c r="F45" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G45" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H45" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I45" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J45" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K45" t="n">
-        <v>27.18934645194798</v>
+        <v>20.41979942316997</v>
       </c>
       <c r="L45" t="n">
-        <v>74.33970537129215</v>
+        <v>60.33448016499857</v>
       </c>
       <c r="M45" t="n">
-        <v>137.2014819011796</v>
+        <v>114.7525615466167</v>
       </c>
       <c r="N45" t="n">
-        <v>207.562523795637</v>
+        <v>172.7600656138712</v>
       </c>
       <c r="O45" t="n">
-        <v>262.9301139282916</v>
+        <v>204.1298114188036</v>
       </c>
       <c r="P45" t="n">
-        <v>299.5375944741904</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q45" t="n">
-        <v>303.7914512094375</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R45" t="n">
-        <v>303.7914512094375</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S45" t="n">
-        <v>303.7914512094375</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T45" t="n">
-        <v>303.7914512094375</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U45" t="n">
-        <v>227.0764382777614</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="V45" t="n">
-        <v>227.0764382777614</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="W45" t="n">
-        <v>150.3614253460852</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="X45" t="n">
-        <v>73.6464124144091</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="Y45" t="n">
-        <v>73.6464124144091</v>
+        <v>175.1884624416622</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>303.7914512094375</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="C46" t="n">
-        <v>303.7914512094375</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="D46" t="n">
-        <v>303.7914512094375</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E46" t="n">
-        <v>227.0764382777614</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F46" t="n">
-        <v>150.3614253460852</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G46" t="n">
-        <v>82.79084195586489</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H46" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I46" t="n">
-        <v>6.07582902418875</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J46" t="n">
-        <v>6.07582902418875</v>
+        <v>44.83138947434913</v>
       </c>
       <c r="K46" t="n">
-        <v>81.26421319852453</v>
+        <v>102.8388935416036</v>
       </c>
       <c r="L46" t="n">
-        <v>143.3887105542501</v>
+        <v>160.846397608858</v>
       </c>
       <c r="M46" t="n">
-        <v>218.5770947285858</v>
+        <v>162.9268120796517</v>
       </c>
       <c r="N46" t="n">
-        <v>228.0656507726995</v>
+        <v>168.1400569361938</v>
       </c>
       <c r="O46" t="n">
-        <v>228.6030670351017</v>
+        <v>168.1400569361938</v>
       </c>
       <c r="P46" t="n">
-        <v>303.7914512094375</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="Q46" t="n">
-        <v>303.7914512094375</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R46" t="n">
-        <v>303.7914512094375</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S46" t="n">
-        <v>303.7914512094375</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T46" t="n">
-        <v>303.7914512094375</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="U46" t="n">
-        <v>303.7914512094375</v>
+        <v>56.81787971080934</v>
       </c>
       <c r="V46" t="n">
-        <v>303.7914512094375</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="W46" t="n">
-        <v>303.7914512094375</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="X46" t="n">
-        <v>303.7914512094375</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="Y46" t="n">
-        <v>303.7914512094375</v>
+        <v>4.687475076141772</v>
       </c>
     </row>
   </sheetData>
@@ -8695,7 +8695,7 @@
         <v>21.55405633213152</v>
       </c>
       <c r="L11" t="n">
-        <v>11.64353751452478</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.40627785259142</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R12" t="n">
         <v>41.35075441487444</v>
@@ -8859,16 +8859,16 @@
         <v>18.90730960179207</v>
       </c>
       <c r="N13" t="n">
-        <v>15.24329362330671</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O13" t="n">
         <v>22.38954887144386</v>
       </c>
       <c r="P13" t="n">
-        <v>26.95620607407936</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.40353443947923</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>40.86370937250673</v>
+        <v>7.530866342333169</v>
       </c>
       <c r="K17" t="n">
-        <v>6.944471810258847</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.531150005785353</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7330732454824584</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.2575401764107</v>
+        <v>6.322714328675303</v>
       </c>
       <c r="R17" t="n">
-        <v>46.72381062751163</v>
+        <v>38.61802642167715</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>18.70652356075183</v>
+        <v>12.18354252066406</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.56209233042347</v>
+        <v>3.748906304207672</v>
       </c>
       <c r="R18" t="n">
-        <v>37.53539260028506</v>
+        <v>33.24871511996928</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.94160780737001</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>40.95724577330598</v>
+        <v>57.25718516165559</v>
       </c>
       <c r="L19" t="n">
-        <v>33.01380056620026</v>
+        <v>48.33735103112475</v>
       </c>
       <c r="M19" t="n">
-        <v>33.21230559244086</v>
+        <v>47.16378495337601</v>
       </c>
       <c r="N19" t="n">
-        <v>7.359545719332466</v>
+        <v>3.264322743820742</v>
       </c>
       <c r="O19" t="n">
-        <v>37.48839935607686</v>
+        <v>6.926171542637348</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72526791008761</v>
+        <v>13.72461538830359</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.08955582939744</v>
+        <v>32.24266689538116</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18.48294167697897</v>
+        <v>7.530866342333169</v>
       </c>
       <c r="K20" t="n">
-        <v>29.3252395057866</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.531150005785353</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7330732454824584</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>20.2575401764107</v>
+        <v>6.322714328675303</v>
       </c>
       <c r="R20" t="n">
-        <v>46.72381062751163</v>
+        <v>38.61802642167715</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>18.70652356075183</v>
+        <v>12.18354252066406</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.56209233042347</v>
+        <v>3.748906304207672</v>
       </c>
       <c r="R21" t="n">
-        <v>37.53539260028506</v>
+        <v>33.24871511996928</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>53.32237550289776</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>40.95724577330598</v>
+        <v>11.85155781106146</v>
       </c>
       <c r="L22" t="n">
-        <v>11.53730631291606</v>
+        <v>48.3373510311247</v>
       </c>
       <c r="M22" t="n">
-        <v>10.83153789691311</v>
+        <v>47.16378495337597</v>
       </c>
       <c r="N22" t="n">
-        <v>28.83603997261667</v>
+        <v>43.90753747918764</v>
       </c>
       <c r="O22" t="n">
-        <v>15.1076316605491</v>
+        <v>6.926171542637348</v>
       </c>
       <c r="P22" t="n">
-        <v>43.10603560561536</v>
+        <v>13.72461538830359</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.08955582939744</v>
+        <v>37.00507951060833</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.872130654231455</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3951920554342365</v>
+        <v>0.3951920554342081</v>
       </c>
       <c r="R23" t="n">
-        <v>35.17003094995922</v>
+        <v>35.17003094995921</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>9.408831460365228</v>
+        <v>9.408831460365221</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.42527100086662</v>
+        <v>31.42527100086661</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>25.10853457891821</v>
       </c>
       <c r="K25" t="n">
-        <v>67.58438536591218</v>
+        <v>8.990946914140046</v>
       </c>
       <c r="L25" t="n">
-        <v>12.84631616207234</v>
+        <v>57.86456505810457</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>56.49200969339471</v>
       </c>
       <c r="N25" t="n">
-        <v>53.32753455627506</v>
+        <v>53.32753455627507</v>
       </c>
       <c r="O25" t="n">
-        <v>3.445985453018096</v>
+        <v>59.67201225017317</v>
       </c>
       <c r="P25" t="n">
-        <v>10.74671496790904</v>
+        <v>10.74671496790903</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.77436145266635</v>
+        <v>30.18092300089421</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.872130654231441</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3951920554342223</v>
+        <v>0.3951920554342081</v>
       </c>
       <c r="R26" t="n">
         <v>35.17003094995921</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>9.408831460365228</v>
+        <v>9.408831460365221</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>8.990946914140054</v>
+        <v>8.990946914140046</v>
       </c>
       <c r="L28" t="n">
-        <v>57.86456505810456</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>12.84631616207236</v>
       </c>
       <c r="N28" t="n">
-        <v>8.309285660242809</v>
+        <v>53.32753455627507</v>
       </c>
       <c r="O28" t="n">
-        <v>3.445985453018089</v>
+        <v>62.03942390479023</v>
       </c>
       <c r="P28" t="n">
-        <v>69.34015341968114</v>
+        <v>69.34015341968117</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.77436145266634</v>
+        <v>30.18092300089421</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.872130654231441</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3951920554342223</v>
+        <v>0.3951920554342081</v>
       </c>
       <c r="R29" t="n">
         <v>35.17003094995921</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>9.408831460365228</v>
+        <v>9.408831460365221</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>25.10853457891821</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>8.990946914140054</v>
+        <v>67.5843853659122</v>
       </c>
       <c r="L31" t="n">
-        <v>53.39572464511006</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.49200969339472</v>
       </c>
       <c r="N31" t="n">
-        <v>53.32753455627505</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>62.03942390479021</v>
+        <v>13.12782647797082</v>
       </c>
       <c r="P31" t="n">
         <v>10.74671496790903</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.77436145266634</v>
+        <v>88.77436145266637</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.872130654231441</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3951920554342223</v>
+        <v>0.3951920554342081</v>
       </c>
       <c r="R32" t="n">
         <v>35.17003094995921</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>9.408831460365228</v>
+        <v>9.408831460365221</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>8.990946914140054</v>
+        <v>67.5843853659122</v>
       </c>
       <c r="L34" t="n">
-        <v>57.86456505810457</v>
+        <v>7.580412266575289</v>
       </c>
       <c r="M34" t="n">
-        <v>56.49200969339471</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>10.41071441862025</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3.445985453018089</v>
+        <v>3.445985453018082</v>
       </c>
       <c r="P34" t="n">
-        <v>10.74671496790903</v>
+        <v>69.34015341968117</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.77436145266634</v>
+        <v>88.77436145266637</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.872130654231441</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3951920554342223</v>
+        <v>0.3951920554342081</v>
       </c>
       <c r="R35" t="n">
         <v>35.17003094995921</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>9.408831460365228</v>
+        <v>9.408831460365221</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>24.66756522825737</v>
+        <v>23.93869183458985</v>
       </c>
       <c r="L37" t="n">
-        <v>57.86456505810457</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>56.49200969339471</v>
+        <v>56.49200969339473</v>
       </c>
       <c r="N37" t="n">
-        <v>53.32753455627506</v>
+        <v>53.32753455627507</v>
       </c>
       <c r="O37" t="n">
-        <v>3.445985453018089</v>
+        <v>62.03942390479023</v>
       </c>
       <c r="P37" t="n">
         <v>10.74671496790903</v>
       </c>
       <c r="Q37" t="n">
-        <v>30.18092300089422</v>
+        <v>30.18092300089421</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.872130654231441</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3951920554342223</v>
+        <v>0.3951920554342081</v>
       </c>
       <c r="R38" t="n">
         <v>35.17003094995921</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>9.408831460365228</v>
+        <v>9.408831460365221</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>25.10853457891821</v>
       </c>
       <c r="K40" t="n">
-        <v>8.990946914140054</v>
+        <v>67.5843853659122</v>
       </c>
       <c r="L40" t="n">
-        <v>12.84631616207234</v>
+        <v>57.86456505810458</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>56.49200969339472</v>
       </c>
       <c r="N40" t="n">
-        <v>53.32753455627506</v>
+        <v>50.96012290165804</v>
       </c>
       <c r="O40" t="n">
-        <v>62.03942390479021</v>
+        <v>3.445985453018082</v>
       </c>
       <c r="P40" t="n">
-        <v>69.34015341968117</v>
+        <v>10.74671496790903</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.18092300089422</v>
+        <v>30.18092300089421</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.872130654231441</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3951920554342223</v>
+        <v>0.3951920554342081</v>
       </c>
       <c r="R41" t="n">
         <v>35.17003094995921</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>9.408831460365228</v>
+        <v>9.408831460365221</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.10853457891821</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>67.58438536591218</v>
+        <v>67.5843853659122</v>
       </c>
       <c r="L43" t="n">
-        <v>50.23124950799042</v>
+        <v>57.86456505810458</v>
       </c>
       <c r="M43" t="n">
-        <v>56.49200969339471</v>
+        <v>8.309285660242844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.445985453018089</v>
+        <v>3.445985453018082</v>
       </c>
       <c r="P43" t="n">
-        <v>69.34015341968116</v>
+        <v>10.74671496790903</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.18092300089422</v>
+        <v>88.77436145266637</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.3951920554342081</v>
       </c>
       <c r="R44" t="n">
-        <v>31.21809620174889</v>
+        <v>35.17003094995921</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>6.22858451822669</v>
+        <v>9.408831460365221</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.33532272952763</v>
+        <v>31.42527100086661</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.11334984944296</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>81.66010830944097</v>
+        <v>67.5843853659122</v>
       </c>
       <c r="L46" t="n">
-        <v>57.82753515371933</v>
+        <v>57.86456505810458</v>
       </c>
       <c r="M46" t="n">
-        <v>69.42275263851177</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3.445985453018082</v>
       </c>
       <c r="P46" t="n">
-        <v>83.28144447453244</v>
+        <v>19.05600062815186</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.81784642339692</v>
+        <v>88.77436145266637</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>360.6177174292684</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23746,13 +23746,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>403.9948574388665</v>
+        <v>403.865817831984</v>
       </c>
       <c r="H17" t="n">
-        <v>278.8013242324162</v>
+        <v>254.4549377033642</v>
       </c>
       <c r="I17" t="n">
-        <v>60.57778515682809</v>
+        <v>55.6029857124895</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.2042619908454</v>
+        <v>76.27049537860657</v>
       </c>
       <c r="T17" t="n">
-        <v>217.1559246089122</v>
+        <v>216.5910537297839</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4381953169066</v>
+        <v>254.427872148356</v>
       </c>
       <c r="V17" t="n">
-        <v>323.9584114213563</v>
+        <v>300.93355176629</v>
       </c>
       <c r="W17" t="n">
-        <v>357.5419301606553</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.21432613517</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>62.46465366872633</v>
       </c>
       <c r="G18" t="n">
-        <v>105.5744941327544</v>
+        <v>65.51217528589508</v>
       </c>
       <c r="H18" t="n">
-        <v>66.70083832515573</v>
+        <v>66.03403528675115</v>
       </c>
       <c r="I18" t="n">
-        <v>8.638115139231887</v>
+        <v>6.261001673529785</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>100.4885602284008</v>
+        <v>99.20613022492962</v>
       </c>
       <c r="T18" t="n">
-        <v>133.9741936436316</v>
+        <v>156.076672514321</v>
       </c>
       <c r="U18" t="n">
-        <v>172.9737904901324</v>
+        <v>149.944388580036</v>
       </c>
       <c r="V18" t="n">
-        <v>189.1936440413688</v>
+        <v>166.1687843863024</v>
       </c>
       <c r="W18" t="n">
-        <v>191.3878563948137</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
@@ -23892,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>123.9768113633065</v>
       </c>
       <c r="D19" t="n">
-        <v>135.5189305347913</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>139.5887267941429</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>122.9915380601114</v>
       </c>
       <c r="G19" t="n">
-        <v>142.9072815915848</v>
+        <v>165.2301665618121</v>
       </c>
       <c r="H19" t="n">
-        <v>145.5344584306495</v>
+        <v>145.0198283820698</v>
       </c>
       <c r="I19" t="n">
-        <v>106.4663700204336</v>
+        <v>104.7256786086731</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>71.38782625352545</v>
+        <v>68.78520844138295</v>
       </c>
       <c r="S19" t="n">
-        <v>179.4767667166956</v>
+        <v>133.0624013260939</v>
       </c>
       <c r="T19" t="n">
-        <v>235.9148534330488</v>
+        <v>190.261908983444</v>
       </c>
       <c r="U19" t="n">
-        <v>257.5735889450857</v>
+        <v>279.9511994010516</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.7382001723168</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23983,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>403.9948574388665</v>
+        <v>403.865817831984</v>
       </c>
       <c r="H20" t="n">
-        <v>301.182091927944</v>
+        <v>299.8605650539583</v>
       </c>
       <c r="I20" t="n">
-        <v>38.19701746130034</v>
+        <v>55.6029857124895</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.2042619908454</v>
+        <v>70.85814459841579</v>
       </c>
       <c r="T20" t="n">
-        <v>217.1559246089122</v>
+        <v>171.1854263791898</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4381953169066</v>
+        <v>209.0222447977619</v>
       </c>
       <c r="V20" t="n">
-        <v>323.9584114213563</v>
+        <v>306.3459025464808</v>
       </c>
       <c r="W20" t="n">
-        <v>360.2097176699623</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24059,16 +24059,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>62.46465366872637</v>
       </c>
       <c r="G21" t="n">
-        <v>105.5744941327544</v>
+        <v>105.5054518562984</v>
       </c>
       <c r="H21" t="n">
-        <v>44.32007062962798</v>
+        <v>66.03403528675115</v>
       </c>
       <c r="I21" t="n">
-        <v>8.638115139231887</v>
+        <v>6.261001673529785</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.10779253287301</v>
+        <v>53.80050287433554</v>
       </c>
       <c r="T21" t="n">
-        <v>156.3549613391593</v>
+        <v>110.671045163727</v>
       </c>
       <c r="U21" t="n">
-        <v>172.9737904901324</v>
+        <v>195.3500159306301</v>
       </c>
       <c r="V21" t="n">
-        <v>191.8614315506757</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>171.1075600106312</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
@@ -24135,19 +24135,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>119.3084304099605</v>
       </c>
       <c r="F22" t="n">
-        <v>140.6040469349869</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>142.9072815915848</v>
+        <v>165.2301665618121</v>
       </c>
       <c r="H22" t="n">
-        <v>145.5344584306495</v>
+        <v>145.0198283820698</v>
       </c>
       <c r="I22" t="n">
-        <v>106.4663700204336</v>
+        <v>104.7256786086731</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>71.38782625352545</v>
+        <v>68.78520844138295</v>
       </c>
       <c r="S22" t="n">
-        <v>179.4767667166956</v>
+        <v>178.468028676688</v>
       </c>
       <c r="T22" t="n">
-        <v>235.9148534330488</v>
+        <v>190.261908983444</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9543566406135</v>
+        <v>234.5455720504575</v>
       </c>
       <c r="V22" t="n">
-        <v>251.4339074236524</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>253.8982001506866</v>
+        <v>230.8733404956203</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.5255294160725</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24217,16 +24217,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>358.2266694740771</v>
       </c>
       <c r="G23" t="n">
-        <v>345.2174891969915</v>
+        <v>403.8109276487636</v>
       </c>
       <c r="H23" t="n">
         <v>299.2984209650525</v>
       </c>
       <c r="I23" t="n">
-        <v>53.48683192388535</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>115.0129618988752</v>
       </c>
       <c r="T23" t="n">
-        <v>216.3507719527366</v>
+        <v>164.7416713644157</v>
       </c>
       <c r="U23" t="n">
-        <v>195.8300424819263</v>
+        <v>254.4234809336984</v>
       </c>
       <c r="V23" t="n">
-        <v>294.7300785285632</v>
+        <v>287.745740665112</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>321.3292594044109</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9000023092308</v>
+        <v>80.30656385745861</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -24299,13 +24299,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.4760830191159</v>
+        <v>46.88264456734372</v>
       </c>
       <c r="H24" t="n">
-        <v>7.156955696927024</v>
+        <v>65.75039414869914</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.24983776176404</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>98.66061695533371</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T24" t="n">
-        <v>155.9582954907653</v>
+        <v>104.3491949024444</v>
       </c>
       <c r="U24" t="n">
-        <v>148.9888209437324</v>
+        <v>195.3480837702892</v>
       </c>
       <c r="V24" t="n">
-        <v>152.9809732851244</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>152.5073981292624</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>106.6121062635094</v>
+        <v>165.2055447152815</v>
       </c>
       <c r="H25" t="n">
-        <v>86.20747933114359</v>
+        <v>144.8009177829157</v>
       </c>
       <c r="I25" t="n">
-        <v>52.37613194468592</v>
+        <v>103.9852325330068</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.084682235606653</v>
+        <v>67.67812068737877</v>
       </c>
       <c r="S25" t="n">
-        <v>178.0389370421498</v>
+        <v>119.4454985903777</v>
       </c>
       <c r="T25" t="n">
-        <v>235.5623338988618</v>
+        <v>176.9688954470897</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9498563912409</v>
+        <v>221.3564179394687</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>224.6698672578934</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24463,7 +24463,7 @@
         <v>299.2984209650525</v>
       </c>
       <c r="I26" t="n">
-        <v>53.48683192388535</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>115.0129618988752</v>
       </c>
       <c r="T26" t="n">
-        <v>157.7573335009645</v>
+        <v>216.3507719527366</v>
       </c>
       <c r="U26" t="n">
         <v>254.4234809336984</v>
@@ -24505,10 +24505,10 @@
         <v>287.745740665112</v>
       </c>
       <c r="W26" t="n">
-        <v>321.329259404411</v>
+        <v>321.3292594044109</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>338.0435254009648</v>
       </c>
       <c r="Y26" t="n">
         <v>345.3182057330699</v>
@@ -24533,16 +24533,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>49.27684256754834</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.4760830191159</v>
+        <v>46.88264456734372</v>
       </c>
       <c r="H27" t="n">
-        <v>65.75039414869914</v>
+        <v>7.156955696927</v>
       </c>
       <c r="I27" t="n">
-        <v>5.249837761764041</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,19 +24572,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>98.66061695533371</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T27" t="n">
         <v>155.9582954907653</v>
       </c>
       <c r="U27" t="n">
-        <v>143.7389831819683</v>
+        <v>148.9888209437323</v>
       </c>
       <c r="V27" t="n">
-        <v>152.9809732851244</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>152.5073981292624</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -24606,10 +24606,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>99.30625977854694</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>100.7082685285916</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24621,7 +24621,7 @@
         <v>144.8009177829157</v>
       </c>
       <c r="I28" t="n">
-        <v>103.9852325330068</v>
+        <v>52.37613194468587</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>178.0389370421498</v>
       </c>
       <c r="T28" t="n">
-        <v>235.5623338988618</v>
+        <v>176.9688954470897</v>
       </c>
       <c r="U28" t="n">
         <v>279.9498563912409</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>212.5534491581011</v>
       </c>
       <c r="W28" t="n">
         <v>217.6855293944422</v>
       </c>
       <c r="X28" t="n">
-        <v>184.3513229305926</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24685,22 +24685,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>341.8258521560979</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>351.6033748765001</v>
       </c>
       <c r="F29" t="n">
-        <v>358.2266694740772</v>
+        <v>365.2110073375284</v>
       </c>
       <c r="G29" t="n">
-        <v>352.2018270604427</v>
+        <v>403.8109276487636</v>
       </c>
       <c r="H29" t="n">
         <v>299.2984209650525</v>
       </c>
       <c r="I29" t="n">
-        <v>53.48683192388535</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.41952344710307</v>
+        <v>115.0129618988752</v>
       </c>
       <c r="T29" t="n">
-        <v>216.3507719527366</v>
+        <v>157.7573335009645</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4234809336984</v>
+        <v>195.8300424819262</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24770,16 +24770,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>49.27684256754834</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.4760830191159</v>
+        <v>53.86698243079497</v>
       </c>
       <c r="H30" t="n">
         <v>65.75039414869914</v>
       </c>
       <c r="I30" t="n">
-        <v>5.249837761764041</v>
+        <v>5.24983776176404</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>40.06717850356159</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T30" t="n">
-        <v>155.9582954907653</v>
+        <v>97.36485703899314</v>
       </c>
       <c r="U30" t="n">
-        <v>143.7389831819683</v>
+        <v>195.3480837702892</v>
       </c>
       <c r="V30" t="n">
-        <v>152.9809732851244</v>
+        <v>152.9809732851243</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.2136087417831</v>
+        <v>127.2292708783318</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24846,19 +24846,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>100.7082685285916</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>106.6121062635094</v>
+        <v>113.5964441269606</v>
       </c>
       <c r="H31" t="n">
-        <v>86.20747933114359</v>
+        <v>144.8009177829157</v>
       </c>
       <c r="I31" t="n">
-        <v>103.9852325330068</v>
+        <v>45.39179408123463</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.67812068737877</v>
+        <v>9.084682235606614</v>
       </c>
       <c r="S31" t="n">
         <v>178.0389370421498</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>354.5098672795237</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -24934,10 +24934,10 @@
         <v>403.8109276487636</v>
       </c>
       <c r="H32" t="n">
-        <v>299.2984209650525</v>
+        <v>247.6893203767316</v>
       </c>
       <c r="I32" t="n">
-        <v>53.48683192388535</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.0129618988752</v>
+        <v>56.41952344710305</v>
       </c>
       <c r="T32" t="n">
-        <v>216.3507719527366</v>
+        <v>157.7573335009645</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4234809336984</v>
+        <v>195.8300424819262</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>321.329259404411</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>338.0435254009649</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>338.3338678696186</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>74.06168208677158</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
@@ -25007,16 +25007,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>49.27684256754833</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>46.88264456734373</v>
+        <v>105.4760830191159</v>
       </c>
       <c r="H33" t="n">
-        <v>7.156955696927014</v>
+        <v>7.156955696926993</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5.24983776176404</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>98.66061695533371</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T33" t="n">
         <v>155.9582954907653</v>
       </c>
       <c r="U33" t="n">
-        <v>148.9888209437324</v>
+        <v>143.7389831819683</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>117.7733381255798</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25086,16 +25086,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>104.3913761787425</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.2055447152815</v>
+        <v>106.6121062635093</v>
       </c>
       <c r="H34" t="n">
         <v>144.8009177829157</v>
       </c>
       <c r="I34" t="n">
-        <v>45.39179408123466</v>
+        <v>45.39179408123463</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.67812068737877</v>
+        <v>9.084682235606614</v>
       </c>
       <c r="S34" t="n">
         <v>178.0389370421498</v>
@@ -25131,10 +25131,10 @@
         <v>235.5623338988618</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9498563912409</v>
+        <v>228.34075580292</v>
       </c>
       <c r="V34" t="n">
-        <v>212.5534491581011</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25156,25 +25156,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>354.4142441915417</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>341.8258521560979</v>
       </c>
       <c r="E35" t="n">
-        <v>351.6033748765001</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>358.2266694740772</v>
+        <v>365.2110073375284</v>
       </c>
       <c r="G35" t="n">
         <v>403.8109276487636</v>
       </c>
       <c r="H35" t="n">
-        <v>240.7049825132803</v>
+        <v>299.2984209650525</v>
       </c>
       <c r="I35" t="n">
-        <v>53.48683192388535</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>115.0129618988752</v>
       </c>
       <c r="T35" t="n">
-        <v>216.3507719527366</v>
+        <v>157.7573335009645</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4234809336984</v>
+        <v>195.8300424819262</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25244,16 +25244,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>49.27684256754833</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>46.88264456734373</v>
+        <v>46.88264456734371</v>
       </c>
       <c r="H36" t="n">
         <v>65.75039414869914</v>
       </c>
       <c r="I36" t="n">
-        <v>5.249837761764041</v>
+        <v>5.24983776176404</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>98.66061695533371</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T36" t="n">
         <v>155.9582954907653</v>
@@ -25292,7 +25292,7 @@
         <v>143.7389831819683</v>
       </c>
       <c r="V36" t="n">
-        <v>152.9809732851244</v>
+        <v>152.9809732851243</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -25323,16 +25323,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>111.3757140421937</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>106.6121062635094</v>
+        <v>165.2055447152815</v>
       </c>
       <c r="H37" t="n">
         <v>144.8009177829157</v>
       </c>
       <c r="I37" t="n">
-        <v>45.39179408123466</v>
+        <v>52.37613194468589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>67.67812068737877</v>
       </c>
       <c r="S37" t="n">
-        <v>178.0389370421498</v>
+        <v>119.4454985903777</v>
       </c>
       <c r="T37" t="n">
-        <v>235.5623338988618</v>
+        <v>176.9688954470897</v>
       </c>
       <c r="U37" t="n">
         <v>279.9498563912409</v>
@@ -25374,10 +25374,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>217.6855293944422</v>
       </c>
       <c r="X37" t="n">
-        <v>177.3669850671413</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.5255294160725</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25402,7 +25402,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>358.2266694740771</v>
       </c>
       <c r="G38" t="n">
         <v>403.8109276487636</v>
@@ -25411,7 +25411,7 @@
         <v>299.2984209650525</v>
       </c>
       <c r="I38" t="n">
-        <v>53.48683192388535</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>115.0129618988752</v>
+        <v>63.40386131055431</v>
       </c>
       <c r="T38" t="n">
         <v>157.7573335009645</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4234809336984</v>
+        <v>195.8300424819262</v>
       </c>
       <c r="V38" t="n">
-        <v>287.745740665112</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>328.3135972678622</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25472,25 +25472,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>74.06168208677158</v>
       </c>
       <c r="D39" t="n">
-        <v>64.11908561448058</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>49.27684256754833</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>46.88264456734373</v>
+        <v>105.4760830191159</v>
       </c>
       <c r="H39" t="n">
         <v>65.75039414869914</v>
       </c>
       <c r="I39" t="n">
-        <v>5.249837761764041</v>
+        <v>5.24983776176404</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>98.66061695533371</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T39" t="n">
         <v>155.9582954907653</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3480837702892</v>
+        <v>136.754645318517</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>159.9653111485756</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>115.969283590724</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -25554,16 +25554,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>99.30625977854692</v>
       </c>
       <c r="E40" t="n">
-        <v>107.6926063920428</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>111.3757140421937</v>
       </c>
       <c r="G40" t="n">
-        <v>165.2055447152815</v>
+        <v>106.6121062635093</v>
       </c>
       <c r="H40" t="n">
         <v>144.8009177829157</v>
@@ -25605,7 +25605,7 @@
         <v>176.9688954470897</v>
       </c>
       <c r="U40" t="n">
-        <v>221.3564179394687</v>
+        <v>279.9498563912409</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>163.8949031733508</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>354.5098672795237</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>347.4299063280904</v>
@@ -25645,10 +25645,10 @@
         <v>403.8109276487636</v>
       </c>
       <c r="H41" t="n">
-        <v>299.2984209650525</v>
+        <v>240.7049825132803</v>
       </c>
       <c r="I41" t="n">
-        <v>53.48683192388535</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>115.0129618988752</v>
+        <v>56.41952344710305</v>
       </c>
       <c r="T41" t="n">
         <v>216.3507719527366</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4234809336984</v>
+        <v>202.8143803453775</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>321.329259404411</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>338.0435254009649</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25709,7 +25709,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>81.04601995022286</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -25718,16 +25718,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>56.26118043099957</v>
       </c>
       <c r="G42" t="n">
-        <v>105.4760830191159</v>
+        <v>46.88264456734371</v>
       </c>
       <c r="H42" t="n">
-        <v>7.156955696927016</v>
+        <v>65.75039414869914</v>
       </c>
       <c r="I42" t="n">
-        <v>5.249837761764041</v>
+        <v>5.24983776176404</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,13 +25760,13 @@
         <v>98.66061695533371</v>
       </c>
       <c r="T42" t="n">
-        <v>155.9582954907653</v>
+        <v>97.36485703899314</v>
       </c>
       <c r="U42" t="n">
-        <v>136.7546453185171</v>
+        <v>195.3480837702892</v>
       </c>
       <c r="V42" t="n">
-        <v>152.9809732851244</v>
+        <v>152.9809732851243</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.084682235606635</v>
+        <v>67.67812068737877</v>
       </c>
       <c r="S43" t="n">
         <v>178.0389370421498</v>
       </c>
       <c r="T43" t="n">
-        <v>235.5623338988618</v>
+        <v>176.9688954470897</v>
       </c>
       <c r="U43" t="n">
         <v>279.9498563912409</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>212.5534491581011</v>
       </c>
       <c r="W43" t="n">
         <v>217.6855293944422</v>
       </c>
       <c r="X43" t="n">
-        <v>184.3513229305926</v>
+        <v>184.3513229305925</v>
       </c>
       <c r="Y43" t="n">
-        <v>163.8949031733508</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>348.8101900195492</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>351.6033748765001</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>403.7480150306399</v>
+        <v>403.8109276487636</v>
       </c>
       <c r="H44" t="n">
-        <v>298.6541171146935</v>
+        <v>299.2984209650525</v>
       </c>
       <c r="I44" t="n">
-        <v>51.06139321367297</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.63147781102293</v>
+        <v>115.0129618988752</v>
       </c>
       <c r="T44" t="n">
-        <v>216.0753719669003</v>
+        <v>157.7573335009645</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4184479242485</v>
+        <v>195.8300424819262</v>
       </c>
       <c r="V44" t="n">
-        <v>270.3913163145247</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>303.9748350538237</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>329.7420862964188</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>72.00512475291262</v>
+        <v>80.3065638574586</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>64.11908561448058</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>49.27684256754831</v>
       </c>
       <c r="G45" t="n">
-        <v>105.4424218008434</v>
+        <v>105.4760830191159</v>
       </c>
       <c r="H45" t="n">
-        <v>65.42529764590962</v>
+        <v>65.75039414869914</v>
       </c>
       <c r="I45" t="n">
-        <v>4.090887922119297</v>
+        <v>5.24983776176404</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>98.03537458961455</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T45" t="n">
-        <v>155.8226171592196</v>
+        <v>155.9582954907653</v>
       </c>
       <c r="U45" t="n">
-        <v>119.3980064140961</v>
+        <v>195.3480837702892</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>135.1529737786751</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>98.61485924013674</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -26031,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>83.35384417800434</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>87.03695182815527</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>98.28244672431731</v>
+        <v>165.2055447152815</v>
       </c>
       <c r="H46" t="n">
-        <v>68.60214966161242</v>
+        <v>144.8009177829157</v>
       </c>
       <c r="I46" t="n">
-        <v>103.1365670983785</v>
+        <v>103.9852325330068</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.40922732593032</v>
+        <v>67.67812068737877</v>
       </c>
       <c r="S46" t="n">
-        <v>177.547131831091</v>
+        <v>119.4454985903777</v>
       </c>
       <c r="T46" t="n">
-        <v>235.4417556781015</v>
+        <v>176.9688954470897</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9483170948056</v>
+        <v>221.3564179394687</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>219.5377870215524</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>166249.2465056967</v>
+        <v>184815.9248999771</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>166249.2465056967</v>
+        <v>184815.9248999771</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>195753.6863260529</v>
+        <v>195753.686326053</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>195753.686326053</v>
+        <v>195753.6863260531</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>195753.686326053</v>
+        <v>195753.6863260531</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>195753.6863260531</v>
+        <v>195753.686326053</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>210341.4081684034</v>
+        <v>195753.6863260531</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>33951.59092978646</v>
       </c>
       <c r="C2" t="n">
-        <v>33951.59092978646</v>
+        <v>33951.59092978647</v>
       </c>
       <c r="D2" t="n">
         <v>35131.33778227538</v>
       </c>
       <c r="E2" t="n">
-        <v>35591.30828061779</v>
+        <v>35591.30828061777</v>
       </c>
       <c r="F2" t="n">
-        <v>35591.30828061778</v>
+        <v>35591.30828061777</v>
       </c>
       <c r="G2" t="n">
-        <v>40384.07851393146</v>
+        <v>45348.36536923675</v>
       </c>
       <c r="H2" t="n">
-        <v>40384.07851393148</v>
+        <v>45348.36536923677</v>
       </c>
       <c r="I2" t="n">
-        <v>48133.03204915441</v>
+        <v>48133.03204915444</v>
       </c>
       <c r="J2" t="n">
-        <v>48133.03204915443</v>
+        <v>48133.03204915446</v>
       </c>
       <c r="K2" t="n">
-        <v>48133.03204915443</v>
+        <v>48133.03204915446</v>
       </c>
       <c r="L2" t="n">
-        <v>48133.03204915443</v>
+        <v>48133.03204915446</v>
       </c>
       <c r="M2" t="n">
         <v>48133.03204915446</v>
       </c>
       <c r="N2" t="n">
-        <v>48133.03204915444</v>
+        <v>48133.03204915446</v>
       </c>
       <c r="O2" t="n">
         <v>48133.03204915446</v>
       </c>
       <c r="P2" t="n">
-        <v>51768.73463916682</v>
+        <v>48133.03204915446</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28346.56574440259</v>
+        <v>59613.58034098476</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44069.88480575386</v>
+        <v>13784.90038491686</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5385.954126696449</v>
+        <v>10926.90962754783</v>
       </c>
       <c r="P3" t="n">
-        <v>14518.07547061354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,25 +26432,25 @@
         <v>5810.693884093569</v>
       </c>
       <c r="G4" t="n">
-        <v>4732.339966588299</v>
+        <v>3461.836981583563</v>
       </c>
       <c r="H4" t="n">
-        <v>4732.339966588299</v>
+        <v>3461.836981583562</v>
       </c>
       <c r="I4" t="n">
-        <v>3272.367518366639</v>
+        <v>3272.367518366637</v>
       </c>
       <c r="J4" t="n">
-        <v>3272.367518366638</v>
+        <v>3272.367518366637</v>
       </c>
       <c r="K4" t="n">
         <v>3272.367518366638</v>
       </c>
       <c r="L4" t="n">
-        <v>3272.367518366638</v>
+        <v>3272.367518366637</v>
       </c>
       <c r="M4" t="n">
-        <v>3272.367518366638</v>
+        <v>3272.367518366637</v>
       </c>
       <c r="N4" t="n">
         <v>3272.367518366638</v>
@@ -26459,7 +26459,7 @@
         <v>3272.367518366638</v>
       </c>
       <c r="P4" t="n">
-        <v>3332.327916037651</v>
+        <v>3272.367518366638</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>2881.063633150532</v>
       </c>
       <c r="G5" t="n">
-        <v>4864.627114997445</v>
+        <v>6964.288110247699</v>
       </c>
       <c r="H5" t="n">
-        <v>4864.627114997445</v>
+        <v>6964.288110247697</v>
       </c>
       <c r="I5" t="n">
-        <v>8063.7627662577</v>
+        <v>8063.762766257703</v>
       </c>
       <c r="J5" t="n">
-        <v>8063.762766257702</v>
+        <v>8063.762766257703</v>
       </c>
       <c r="K5" t="n">
-        <v>8063.762766257702</v>
+        <v>8063.762766257703</v>
       </c>
       <c r="L5" t="n">
-        <v>8063.762766257702</v>
+        <v>8063.762766257703</v>
       </c>
       <c r="M5" t="n">
-        <v>8063.762766257702</v>
+        <v>8063.762766257703</v>
       </c>
       <c r="N5" t="n">
-        <v>8063.762766257702</v>
+        <v>8063.762766257703</v>
       </c>
       <c r="O5" t="n">
-        <v>8063.762766257702</v>
+        <v>8063.762766257703</v>
       </c>
       <c r="P5" t="n">
-        <v>9460.071166703481</v>
+        <v>8063.762766257703</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23927.14544863244</v>
+        <v>-25313.45801517282</v>
       </c>
       <c r="C6" t="n">
-        <v>-23927.14544863244</v>
+        <v>-25313.45801517281</v>
       </c>
       <c r="D6" t="n">
-        <v>-92571.81705895637</v>
+        <v>-93949.70286226469</v>
       </c>
       <c r="E6" t="n">
-        <v>-2884.981993560046</v>
+        <v>-4259.582293308797</v>
       </c>
       <c r="F6" t="n">
-        <v>26899.55076337369</v>
+        <v>25524.95046362494</v>
       </c>
       <c r="G6" t="n">
-        <v>2440.545687943129</v>
+        <v>-25996.24709840929</v>
       </c>
       <c r="H6" t="n">
-        <v>30787.11143234573</v>
+        <v>33617.33324257549</v>
       </c>
       <c r="I6" t="n">
-        <v>-7272.983041223779</v>
+        <v>21726.98482106834</v>
       </c>
       <c r="J6" t="n">
-        <v>36796.90176453009</v>
+        <v>35511.88520598523</v>
       </c>
       <c r="K6" t="n">
-        <v>36796.9017645301</v>
+        <v>35511.88520598523</v>
       </c>
       <c r="L6" t="n">
-        <v>36796.90176453009</v>
+        <v>35511.88520598523</v>
       </c>
       <c r="M6" t="n">
-        <v>36796.90176453012</v>
+        <v>35511.88520598523</v>
       </c>
       <c r="N6" t="n">
-        <v>36796.90176453011</v>
+        <v>35511.88520598523</v>
       </c>
       <c r="O6" t="n">
-        <v>31410.94763783367</v>
+        <v>24584.97557843739</v>
       </c>
       <c r="P6" t="n">
-        <v>24458.26008581215</v>
+        <v>35511.88520598523</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>132.1588822546115</v>
       </c>
       <c r="G3" t="n">
-        <v>160.7282770233651</v>
+        <v>192.8268792353934</v>
       </c>
       <c r="H3" t="n">
-        <v>160.7282770233651</v>
+        <v>192.8268792353934</v>
       </c>
       <c r="I3" t="n">
         <v>206.4808123114659</v>
@@ -26779,7 +26779,7 @@
         <v>206.4808123114659</v>
       </c>
       <c r="P3" t="n">
-        <v>222.1303260697262</v>
+        <v>206.4808123114659</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="H4" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="I4" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="J4" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="K4" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="L4" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="M4" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="N4" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="O4" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="P4" t="n">
-        <v>75.94786280235938</v>
+        <v>58.59343845177215</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.56939476875351</v>
+        <v>60.66799698078188</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.7525352881008</v>
+        <v>13.65393307607249</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.64951375826027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>36.21267075624437</v>
+        <v>13.18781110117806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="P4" t="n">
-        <v>17.35442435058725</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H11" t="n">
-        <v>5.441094081970008</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I11" t="n">
         <v>20.48263440450618</v>
@@ -31767,7 +31767,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L11" t="n">
-        <v>83.84186054832004</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M11" t="n">
         <v>93.29022445704545</v>
@@ -31837,7 +31837,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I12" t="n">
-        <v>9.787237978289628</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J12" t="n">
         <v>26.85692908157158</v>
@@ -31861,13 +31861,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.2863406522473</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R12" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S12" t="n">
-        <v>5.280121380644146</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T12" t="n">
         <v>1.14579257350932</v>
@@ -31916,7 +31916,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I13" t="n">
-        <v>7.166911188495984</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J13" t="n">
         <v>16.84917421793629</v>
@@ -31937,7 +31937,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P13" t="n">
-        <v>28.82363556582542</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q13" t="n">
         <v>19.95599122044634</v>
@@ -31946,7 +31946,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S13" t="n">
-        <v>4.153255365280167</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T13" t="n">
         <v>1.018273355076515</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6461438272296077</v>
+        <v>0.7751834341121338</v>
       </c>
       <c r="H17" t="n">
-        <v>6.617320470615222</v>
+        <v>7.938847344600892</v>
       </c>
       <c r="I17" t="n">
-        <v>24.91045989926948</v>
+        <v>29.88525934360807</v>
       </c>
       <c r="J17" t="n">
-        <v>54.84064965632897</v>
+        <v>65.79272499097478</v>
       </c>
       <c r="K17" t="n">
-        <v>82.19191786295828</v>
+        <v>98.60623975694142</v>
       </c>
       <c r="L17" t="n">
-        <v>101.9663420155364</v>
+        <v>122.3297597786507</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4572023030309</v>
+        <v>136.1154281750423</v>
       </c>
       <c r="N17" t="n">
-        <v>115.2930584521471</v>
+        <v>138.3179181072134</v>
       </c>
       <c r="O17" t="n">
-        <v>108.8679657701327</v>
+        <v>130.6096878342609</v>
       </c>
       <c r="P17" t="n">
-        <v>92.9162900354017</v>
+        <v>111.4723468046176</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.77626422274135</v>
+        <v>83.71109007047674</v>
       </c>
       <c r="R17" t="n">
-        <v>40.58833218721188</v>
+        <v>48.69411639304636</v>
       </c>
       <c r="S17" t="n">
-        <v>14.7240024629947</v>
+        <v>17.66449250483027</v>
       </c>
       <c r="T17" t="n">
-        <v>2.828494603697609</v>
+        <v>3.393365482825867</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05169150617836861</v>
+        <v>0.06201467472897069</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3457174260502569</v>
+        <v>0.4147597025063179</v>
       </c>
       <c r="H18" t="n">
-        <v>3.338902509485377</v>
+        <v>4.005705547889966</v>
       </c>
       <c r="I18" t="n">
-        <v>11.90299032673034</v>
+        <v>14.28010379243244</v>
       </c>
       <c r="J18" t="n">
-        <v>32.66271523924818</v>
+        <v>39.18569627933595</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>75.06465428341215</v>
+        <v>90.0556099674354</v>
       </c>
       <c r="M18" t="n">
-        <v>79.94505143394517</v>
+        <v>102.9699110890116</v>
       </c>
       <c r="N18" t="n">
-        <v>66.34329454220571</v>
+        <v>98.59902074434413</v>
       </c>
       <c r="O18" t="n">
-        <v>80.13224669552775</v>
+        <v>98.68188413096591</v>
       </c>
       <c r="P18" t="n">
-        <v>66.01686533059687</v>
+        <v>68.36482761439555</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13052617441525</v>
+        <v>52.94371220063105</v>
       </c>
       <c r="R18" t="n">
-        <v>21.46480650512035</v>
+        <v>25.75148398543613</v>
       </c>
       <c r="S18" t="n">
-        <v>6.421549558433496</v>
+        <v>7.703979561904628</v>
       </c>
       <c r="T18" t="n">
-        <v>1.39348383570257</v>
+        <v>1.671772660540816</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02274456750330639</v>
+        <v>0.0272868225333104</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2898378765995107</v>
+        <v>0.3477206018998897</v>
       </c>
       <c r="H19" t="n">
-        <v>2.576922211948379</v>
+        <v>3.091552260528113</v>
       </c>
       <c r="I19" t="n">
-        <v>8.71621541628347</v>
+        <v>10.45690682804396</v>
       </c>
       <c r="J19" t="n">
-        <v>20.49153787558541</v>
+        <v>24.5838465543222</v>
       </c>
       <c r="K19" t="n">
-        <v>33.6738914812886</v>
+        <v>40.39881174800536</v>
       </c>
       <c r="L19" t="n">
-        <v>43.09098758098545</v>
+        <v>51.69657021337089</v>
       </c>
       <c r="M19" t="n">
-        <v>45.43340460186693</v>
+        <v>54.50678489599817</v>
       </c>
       <c r="N19" t="n">
-        <v>44.35309978908698</v>
+        <v>53.21073537982589</v>
       </c>
       <c r="O19" t="n">
-        <v>40.96726641244722</v>
+        <v>49.14872653035898</v>
       </c>
       <c r="P19" t="n">
-        <v>35.05457372981717</v>
+        <v>42.05522625160119</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.26996983052812</v>
+        <v>29.11685876454441</v>
       </c>
       <c r="R19" t="n">
-        <v>13.03216488782891</v>
+        <v>15.6347826999714</v>
       </c>
       <c r="S19" t="n">
-        <v>5.051083722193289</v>
+        <v>6.059821762200803</v>
       </c>
       <c r="T19" t="n">
-        <v>1.238398200016091</v>
+        <v>1.485715299026801</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01580933872360969</v>
+        <v>0.01896657828544855</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6461438272296077</v>
+        <v>0.7751834341121338</v>
       </c>
       <c r="H20" t="n">
-        <v>6.617320470615222</v>
+        <v>7.938847344600892</v>
       </c>
       <c r="I20" t="n">
-        <v>24.91045989926948</v>
+        <v>29.88525934360807</v>
       </c>
       <c r="J20" t="n">
-        <v>54.84064965632897</v>
+        <v>65.79272499097478</v>
       </c>
       <c r="K20" t="n">
-        <v>82.19191786295828</v>
+        <v>98.60623975694142</v>
       </c>
       <c r="L20" t="n">
-        <v>101.9663420155364</v>
+        <v>122.3297597786507</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4572023030309</v>
+        <v>136.1154281750423</v>
       </c>
       <c r="N20" t="n">
-        <v>115.2930584521471</v>
+        <v>138.3179181072134</v>
       </c>
       <c r="O20" t="n">
-        <v>108.8679657701327</v>
+        <v>130.6096878342609</v>
       </c>
       <c r="P20" t="n">
-        <v>92.9162900354017</v>
+        <v>111.4723468046176</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.77626422274135</v>
+        <v>83.71109007047674</v>
       </c>
       <c r="R20" t="n">
-        <v>40.58833218721188</v>
+        <v>48.69411639304636</v>
       </c>
       <c r="S20" t="n">
-        <v>14.7240024629947</v>
+        <v>17.66449250483027</v>
       </c>
       <c r="T20" t="n">
-        <v>2.828494603697609</v>
+        <v>3.393365482825867</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05169150617836861</v>
+        <v>0.06201467472897069</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3457174260502569</v>
+        <v>0.4147597025063179</v>
       </c>
       <c r="H21" t="n">
-        <v>3.338902509485377</v>
+        <v>4.005705547889966</v>
       </c>
       <c r="I21" t="n">
-        <v>11.90299032673034</v>
+        <v>14.28010379243244</v>
       </c>
       <c r="J21" t="n">
-        <v>32.66271523924818</v>
+        <v>39.18569627933595</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>75.06465428341215</v>
+        <v>90.0556099674354</v>
       </c>
       <c r="M21" t="n">
-        <v>79.94505143394517</v>
+        <v>92.13382673972242</v>
       </c>
       <c r="N21" t="n">
-        <v>66.34329454220571</v>
+        <v>98.59902074434407</v>
       </c>
       <c r="O21" t="n">
-        <v>80.13224669552775</v>
+        <v>98.68188413096591</v>
       </c>
       <c r="P21" t="n">
-        <v>66.01686533059687</v>
+        <v>79.20091196368452</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.13052617441525</v>
+        <v>52.94371220063105</v>
       </c>
       <c r="R21" t="n">
-        <v>21.46480650512035</v>
+        <v>25.75148398543613</v>
       </c>
       <c r="S21" t="n">
-        <v>6.421549558433496</v>
+        <v>7.703979561904628</v>
       </c>
       <c r="T21" t="n">
-        <v>1.39348383570257</v>
+        <v>1.671772660540816</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02274456750330639</v>
+        <v>0.0272868225333104</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2898378765995107</v>
+        <v>0.3477206018998897</v>
       </c>
       <c r="H22" t="n">
-        <v>2.576922211948379</v>
+        <v>3.091552260528113</v>
       </c>
       <c r="I22" t="n">
-        <v>8.71621541628347</v>
+        <v>10.45690682804396</v>
       </c>
       <c r="J22" t="n">
-        <v>20.49153787558541</v>
+        <v>24.5838465543222</v>
       </c>
       <c r="K22" t="n">
-        <v>33.6738914812886</v>
+        <v>40.39881174800536</v>
       </c>
       <c r="L22" t="n">
-        <v>43.09098758098545</v>
+        <v>51.69657021337089</v>
       </c>
       <c r="M22" t="n">
-        <v>45.43340460186693</v>
+        <v>54.50678489599817</v>
       </c>
       <c r="N22" t="n">
-        <v>44.35309978908698</v>
+        <v>53.21073537982589</v>
       </c>
       <c r="O22" t="n">
-        <v>40.96726641244722</v>
+        <v>49.14872653035898</v>
       </c>
       <c r="P22" t="n">
-        <v>35.05457372981717</v>
+        <v>42.05522625160119</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.26996983052812</v>
+        <v>29.11685876454441</v>
       </c>
       <c r="R22" t="n">
-        <v>13.03216488782891</v>
+        <v>15.6347826999714</v>
       </c>
       <c r="S22" t="n">
-        <v>5.051083722193289</v>
+        <v>6.059821762200803</v>
       </c>
       <c r="T22" t="n">
-        <v>1.238398200016091</v>
+        <v>1.485715299026801</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01580933872360969</v>
+        <v>0.01896657828544855</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8300736173325254</v>
+        <v>0.8300736173325256</v>
       </c>
       <c r="H23" t="n">
-        <v>8.500991433506728</v>
+        <v>8.50099143350673</v>
       </c>
       <c r="I23" t="n">
-        <v>32.00141313221221</v>
+        <v>32.00141313221223</v>
       </c>
       <c r="J23" t="n">
-        <v>70.45146067907649</v>
+        <v>70.45146067907652</v>
       </c>
       <c r="K23" t="n">
         <v>105.5884769007623</v>
       </c>
       <c r="L23" t="n">
-        <v>130.9918423672026</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M23" t="n">
-        <v>145.7536640594399</v>
+        <v>145.75366405944</v>
       </c>
       <c r="N23" t="n">
-        <v>148.1121107246859</v>
+        <v>148.112110724686</v>
       </c>
       <c r="O23" t="n">
         <v>139.8580661923357</v>
       </c>
       <c r="P23" t="n">
-        <v>119.3656237644389</v>
+        <v>119.365623764439</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.63861234371781</v>
+        <v>89.63861234371784</v>
       </c>
       <c r="R23" t="n">
-        <v>52.1421118647643</v>
+        <v>52.14211186476431</v>
       </c>
       <c r="S23" t="n">
-        <v>18.91530255496494</v>
+        <v>18.91530255496495</v>
       </c>
       <c r="T23" t="n">
-        <v>3.633647259873132</v>
+        <v>3.633647259873133</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06640588938660202</v>
+        <v>0.06640588938660204</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4441285396888134</v>
+        <v>0.4441285396888135</v>
       </c>
       <c r="H24" t="n">
-        <v>4.289346685941961</v>
+        <v>4.289346685941963</v>
       </c>
       <c r="I24" t="n">
-        <v>15.29126770419818</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J24" t="n">
-        <v>41.96040733963478</v>
+        <v>41.96040733963479</v>
       </c>
       <c r="K24" t="n">
-        <v>71.71701949878528</v>
+        <v>71.71701949878529</v>
       </c>
       <c r="L24" t="n">
-        <v>96.43238314602942</v>
+        <v>96.43238314602945</v>
       </c>
       <c r="M24" t="n">
-        <v>112.5320427097489</v>
+        <v>96.30065603524294</v>
       </c>
       <c r="N24" t="n">
-        <v>95.5554451710162</v>
+        <v>111.7868318455221</v>
       </c>
       <c r="O24" t="n">
         <v>105.6694775986801</v>
       </c>
       <c r="P24" t="n">
-        <v>84.80907175864718</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483871</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>27.57492810453879</v>
+        <v>27.5749281045388</v>
       </c>
       <c r="S24" t="n">
-        <v>8.249492831500541</v>
+        <v>8.249492831500543</v>
       </c>
       <c r="T24" t="n">
         <v>1.790149684096576</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02921898287426405</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,40 +32861,40 @@
         <v>0.3723424484305122</v>
       </c>
       <c r="H25" t="n">
-        <v>3.310462859682192</v>
+        <v>3.310462859682193</v>
       </c>
       <c r="I25" t="n">
-        <v>11.19735290371031</v>
+        <v>11.19735290371032</v>
       </c>
       <c r="J25" t="n">
         <v>26.32461110403721</v>
       </c>
       <c r="K25" t="n">
-        <v>43.25942264492677</v>
+        <v>43.25942264492678</v>
       </c>
       <c r="L25" t="n">
-        <v>55.35716728756906</v>
+        <v>55.35716728756908</v>
       </c>
       <c r="M25" t="n">
-        <v>58.36637125715746</v>
+        <v>58.36637125715747</v>
       </c>
       <c r="N25" t="n">
-        <v>56.9785494039165</v>
+        <v>56.97854940391652</v>
       </c>
       <c r="O25" t="n">
-        <v>52.62891261997823</v>
+        <v>52.62891261997824</v>
       </c>
       <c r="P25" t="n">
         <v>45.03312667199575</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.17860265903134</v>
+        <v>31.17860265903135</v>
       </c>
       <c r="R25" t="n">
-        <v>16.74187045397557</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S25" t="n">
-        <v>6.488913396739014</v>
+        <v>6.488913396739016</v>
       </c>
       <c r="T25" t="n">
         <v>1.590917734203097</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8300736173325255</v>
+        <v>0.8300736173325256</v>
       </c>
       <c r="H26" t="n">
         <v>8.50099143350673</v>
       </c>
       <c r="I26" t="n">
-        <v>32.00141313221222</v>
+        <v>32.00141313221223</v>
       </c>
       <c r="J26" t="n">
-        <v>70.4514606790765</v>
+        <v>70.45146067907652</v>
       </c>
       <c r="K26" t="n">
         <v>105.5884769007623</v>
       </c>
       <c r="L26" t="n">
-        <v>130.9918423672026</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M26" t="n">
         <v>145.7536640594399</v>
@@ -32967,19 +32967,19 @@
         <v>119.3656237644389</v>
       </c>
       <c r="Q26" t="n">
-        <v>89.63861234371782</v>
+        <v>89.63861234371784</v>
       </c>
       <c r="R26" t="n">
-        <v>52.1421118647643</v>
+        <v>52.14211186476431</v>
       </c>
       <c r="S26" t="n">
         <v>18.91530255496495</v>
       </c>
       <c r="T26" t="n">
-        <v>3.633647259873132</v>
+        <v>3.633647259873133</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06640588938660202</v>
+        <v>0.06640588938660204</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4441285396888134</v>
+        <v>0.4441285396888135</v>
       </c>
       <c r="H27" t="n">
-        <v>4.289346685941962</v>
+        <v>4.289346685941963</v>
       </c>
       <c r="I27" t="n">
-        <v>15.29126770419818</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J27" t="n">
-        <v>41.96040733963478</v>
+        <v>41.96040733963479</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>71.71701949878529</v>
       </c>
       <c r="L27" t="n">
-        <v>96.43238314602944</v>
+        <v>96.43238314602945</v>
       </c>
       <c r="M27" t="n">
-        <v>112.5320427097489</v>
+        <v>96.30065603524294</v>
       </c>
       <c r="N27" t="n">
         <v>111.7868318455221</v>
@@ -33043,22 +33043,22 @@
         <v>105.6694775986801</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46892179831113</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483871</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>27.5749281045388</v>
       </c>
       <c r="S27" t="n">
-        <v>8.249492831500541</v>
+        <v>8.249492831500543</v>
       </c>
       <c r="T27" t="n">
         <v>1.790149684096576</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02921898287426405</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33107,16 +33107,16 @@
         <v>26.32461110403721</v>
       </c>
       <c r="K28" t="n">
-        <v>43.25942264492677</v>
+        <v>43.25942264492678</v>
       </c>
       <c r="L28" t="n">
-        <v>55.35716728756907</v>
+        <v>55.35716728756908</v>
       </c>
       <c r="M28" t="n">
         <v>58.36637125715747</v>
       </c>
       <c r="N28" t="n">
-        <v>56.97854940391651</v>
+        <v>56.97854940391652</v>
       </c>
       <c r="O28" t="n">
         <v>52.62891261997824</v>
@@ -33128,10 +33128,10 @@
         <v>31.17860265903135</v>
       </c>
       <c r="R28" t="n">
-        <v>16.74187045397557</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S28" t="n">
-        <v>6.488913396739015</v>
+        <v>6.488913396739016</v>
       </c>
       <c r="T28" t="n">
         <v>1.590917734203097</v>
@@ -33174,25 +33174,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8300736173325255</v>
+        <v>0.8300736173325256</v>
       </c>
       <c r="H29" t="n">
         <v>8.50099143350673</v>
       </c>
       <c r="I29" t="n">
-        <v>32.00141313221222</v>
+        <v>32.00141313221223</v>
       </c>
       <c r="J29" t="n">
-        <v>70.4514606790765</v>
+        <v>70.45146067907652</v>
       </c>
       <c r="K29" t="n">
         <v>105.5884769007623</v>
       </c>
       <c r="L29" t="n">
-        <v>130.9918423672026</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M29" t="n">
-        <v>145.7536640594399</v>
+        <v>145.75366405944</v>
       </c>
       <c r="N29" t="n">
         <v>148.112110724686</v>
@@ -33201,22 +33201,22 @@
         <v>139.8580661923357</v>
       </c>
       <c r="P29" t="n">
-        <v>119.3656237644389</v>
+        <v>119.365623764439</v>
       </c>
       <c r="Q29" t="n">
-        <v>89.63861234371782</v>
+        <v>89.63861234371784</v>
       </c>
       <c r="R29" t="n">
-        <v>52.1421118647643</v>
+        <v>52.14211186476431</v>
       </c>
       <c r="S29" t="n">
         <v>18.91530255496495</v>
       </c>
       <c r="T29" t="n">
-        <v>3.633647259873132</v>
+        <v>3.633647259873133</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06640588938660202</v>
+        <v>0.06640588938660204</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4441285396888134</v>
+        <v>0.4441285396888135</v>
       </c>
       <c r="H30" t="n">
-        <v>4.289346685941962</v>
+        <v>4.289346685941963</v>
       </c>
       <c r="I30" t="n">
-        <v>15.29126770419818</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J30" t="n">
-        <v>41.96040733963478</v>
+        <v>41.96040733963479</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>71.71701949878529</v>
       </c>
       <c r="L30" t="n">
-        <v>96.43238314602944</v>
+        <v>96.43238314602945</v>
       </c>
       <c r="M30" t="n">
         <v>112.5320427097489</v>
       </c>
       <c r="N30" t="n">
-        <v>111.446681885186</v>
+        <v>95.5554451710162</v>
       </c>
       <c r="O30" t="n">
         <v>105.6694775986801</v>
       </c>
       <c r="P30" t="n">
-        <v>84.80907175864719</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483871</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>27.5749281045388</v>
       </c>
       <c r="S30" t="n">
-        <v>8.249492831500541</v>
+        <v>8.249492831500543</v>
       </c>
       <c r="T30" t="n">
         <v>1.790149684096576</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02921898287426405</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33344,16 +33344,16 @@
         <v>26.32461110403721</v>
       </c>
       <c r="K31" t="n">
-        <v>43.25942264492677</v>
+        <v>43.25942264492678</v>
       </c>
       <c r="L31" t="n">
-        <v>55.35716728756907</v>
+        <v>55.35716728756908</v>
       </c>
       <c r="M31" t="n">
         <v>58.36637125715747</v>
       </c>
       <c r="N31" t="n">
-        <v>56.97854940391651</v>
+        <v>56.97854940391652</v>
       </c>
       <c r="O31" t="n">
         <v>52.62891261997824</v>
@@ -33365,10 +33365,10 @@
         <v>31.17860265903135</v>
       </c>
       <c r="R31" t="n">
-        <v>16.74187045397557</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S31" t="n">
-        <v>6.488913396739015</v>
+        <v>6.488913396739016</v>
       </c>
       <c r="T31" t="n">
         <v>1.590917734203097</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8300736173325255</v>
+        <v>0.8300736173325256</v>
       </c>
       <c r="H32" t="n">
         <v>8.50099143350673</v>
       </c>
       <c r="I32" t="n">
-        <v>32.00141313221222</v>
+        <v>32.00141313221223</v>
       </c>
       <c r="J32" t="n">
-        <v>70.4514606790765</v>
+        <v>70.45146067907652</v>
       </c>
       <c r="K32" t="n">
         <v>105.5884769007623</v>
       </c>
       <c r="L32" t="n">
-        <v>130.9918423672026</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M32" t="n">
-        <v>145.7536640594399</v>
+        <v>145.75366405944</v>
       </c>
       <c r="N32" t="n">
         <v>148.112110724686</v>
@@ -33438,22 +33438,22 @@
         <v>139.8580661923357</v>
       </c>
       <c r="P32" t="n">
-        <v>119.3656237644389</v>
+        <v>119.365623764439</v>
       </c>
       <c r="Q32" t="n">
-        <v>89.63861234371782</v>
+        <v>89.63861234371784</v>
       </c>
       <c r="R32" t="n">
-        <v>52.1421118647643</v>
+        <v>52.14211186476431</v>
       </c>
       <c r="S32" t="n">
         <v>18.91530255496495</v>
       </c>
       <c r="T32" t="n">
-        <v>3.633647259873132</v>
+        <v>3.633647259873133</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06640588938660202</v>
+        <v>0.06640588938660204</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4441285396888134</v>
+        <v>0.4441285396888135</v>
       </c>
       <c r="H33" t="n">
-        <v>4.289346685941962</v>
+        <v>4.289346685941963</v>
       </c>
       <c r="I33" t="n">
-        <v>15.29126770419818</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J33" t="n">
-        <v>41.96040733963478</v>
+        <v>41.96040733963479</v>
       </c>
       <c r="K33" t="n">
-        <v>71.71701949878528</v>
+        <v>71.71701949878529</v>
       </c>
       <c r="L33" t="n">
-        <v>96.43238314602944</v>
+        <v>96.43238314602945</v>
       </c>
       <c r="M33" t="n">
         <v>112.5320427097489</v>
       </c>
       <c r="N33" t="n">
-        <v>95.55544517101617</v>
+        <v>95.5554451710162</v>
       </c>
       <c r="O33" t="n">
         <v>105.6694775986801</v>
       </c>
       <c r="P33" t="n">
-        <v>84.80907175864719</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483871</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>27.5749281045388</v>
       </c>
       <c r="S33" t="n">
-        <v>8.249492831500541</v>
+        <v>8.249492831500543</v>
       </c>
       <c r="T33" t="n">
         <v>1.790149684096576</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02921898287426405</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33581,16 +33581,16 @@
         <v>26.32461110403721</v>
       </c>
       <c r="K34" t="n">
-        <v>43.25942264492677</v>
+        <v>43.25942264492678</v>
       </c>
       <c r="L34" t="n">
-        <v>55.35716728756907</v>
+        <v>55.35716728756908</v>
       </c>
       <c r="M34" t="n">
         <v>58.36637125715747</v>
       </c>
       <c r="N34" t="n">
-        <v>56.97854940391651</v>
+        <v>56.97854940391652</v>
       </c>
       <c r="O34" t="n">
         <v>52.62891261997824</v>
@@ -33602,10 +33602,10 @@
         <v>31.17860265903135</v>
       </c>
       <c r="R34" t="n">
-        <v>16.74187045397557</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S34" t="n">
-        <v>6.488913396739015</v>
+        <v>6.488913396739016</v>
       </c>
       <c r="T34" t="n">
         <v>1.590917734203097</v>
@@ -33648,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8300736173325255</v>
+        <v>0.8300736173325256</v>
       </c>
       <c r="H35" t="n">
         <v>8.50099143350673</v>
       </c>
       <c r="I35" t="n">
-        <v>32.00141313221222</v>
+        <v>32.00141313221223</v>
       </c>
       <c r="J35" t="n">
-        <v>70.4514606790765</v>
+        <v>70.45146067907652</v>
       </c>
       <c r="K35" t="n">
         <v>105.5884769007623</v>
       </c>
       <c r="L35" t="n">
-        <v>130.9918423672026</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M35" t="n">
-        <v>145.7536640594399</v>
+        <v>145.75366405944</v>
       </c>
       <c r="N35" t="n">
         <v>148.112110724686</v>
@@ -33675,22 +33675,22 @@
         <v>139.8580661923357</v>
       </c>
       <c r="P35" t="n">
-        <v>119.3656237644389</v>
+        <v>119.365623764439</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.63861234371782</v>
+        <v>89.63861234371784</v>
       </c>
       <c r="R35" t="n">
-        <v>52.1421118647643</v>
+        <v>52.14211186476431</v>
       </c>
       <c r="S35" t="n">
         <v>18.91530255496495</v>
       </c>
       <c r="T35" t="n">
-        <v>3.633647259873132</v>
+        <v>3.633647259873133</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06640588938660202</v>
+        <v>0.06640588938660204</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4441285396888134</v>
+        <v>0.4441285396888135</v>
       </c>
       <c r="H36" t="n">
-        <v>4.289346685941962</v>
+        <v>4.289346685941963</v>
       </c>
       <c r="I36" t="n">
-        <v>15.29126770419818</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J36" t="n">
-        <v>41.96040733963478</v>
+        <v>41.96040733963479</v>
       </c>
       <c r="K36" t="n">
-        <v>71.71701949878528</v>
+        <v>71.71701949878529</v>
       </c>
       <c r="L36" t="n">
-        <v>96.43238314602944</v>
+        <v>96.43238314602945</v>
       </c>
       <c r="M36" t="n">
         <v>112.5320427097489</v>
       </c>
       <c r="N36" t="n">
-        <v>95.55544517101617</v>
+        <v>95.5554451710162</v>
       </c>
       <c r="O36" t="n">
         <v>105.6694775986801</v>
       </c>
       <c r="P36" t="n">
-        <v>84.80907175864719</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483871</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>27.5749281045388</v>
       </c>
       <c r="S36" t="n">
-        <v>8.249492831500541</v>
+        <v>8.249492831500543</v>
       </c>
       <c r="T36" t="n">
         <v>1.790149684096576</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02921898287426405</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33818,16 +33818,16 @@
         <v>26.32461110403721</v>
       </c>
       <c r="K37" t="n">
-        <v>43.25942264492677</v>
+        <v>43.25942264492678</v>
       </c>
       <c r="L37" t="n">
-        <v>55.35716728756907</v>
+        <v>55.35716728756908</v>
       </c>
       <c r="M37" t="n">
         <v>58.36637125715747</v>
       </c>
       <c r="N37" t="n">
-        <v>56.97854940391651</v>
+        <v>56.97854940391652</v>
       </c>
       <c r="O37" t="n">
         <v>52.62891261997824</v>
@@ -33839,10 +33839,10 @@
         <v>31.17860265903135</v>
       </c>
       <c r="R37" t="n">
-        <v>16.74187045397557</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S37" t="n">
-        <v>6.488913396739015</v>
+        <v>6.488913396739016</v>
       </c>
       <c r="T37" t="n">
         <v>1.590917734203097</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8300736173325255</v>
+        <v>0.8300736173325256</v>
       </c>
       <c r="H38" t="n">
         <v>8.50099143350673</v>
       </c>
       <c r="I38" t="n">
-        <v>32.00141313221222</v>
+        <v>32.00141313221223</v>
       </c>
       <c r="J38" t="n">
-        <v>70.4514606790765</v>
+        <v>70.45146067907652</v>
       </c>
       <c r="K38" t="n">
         <v>105.5884769007623</v>
       </c>
       <c r="L38" t="n">
-        <v>130.9918423672026</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M38" t="n">
-        <v>145.7536640594399</v>
+        <v>145.75366405944</v>
       </c>
       <c r="N38" t="n">
         <v>148.112110724686</v>
@@ -33912,22 +33912,22 @@
         <v>139.8580661923357</v>
       </c>
       <c r="P38" t="n">
-        <v>119.3656237644389</v>
+        <v>119.365623764439</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.63861234371782</v>
+        <v>89.63861234371784</v>
       </c>
       <c r="R38" t="n">
-        <v>52.1421118647643</v>
+        <v>52.14211186476431</v>
       </c>
       <c r="S38" t="n">
         <v>18.91530255496495</v>
       </c>
       <c r="T38" t="n">
-        <v>3.633647259873132</v>
+        <v>3.633647259873133</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06640588938660202</v>
+        <v>0.06640588938660204</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4441285396888134</v>
+        <v>0.4441285396888135</v>
       </c>
       <c r="H39" t="n">
-        <v>4.289346685941962</v>
+        <v>4.289346685941963</v>
       </c>
       <c r="I39" t="n">
-        <v>15.29126770419818</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J39" t="n">
-        <v>41.96040733963478</v>
+        <v>41.96040733963479</v>
       </c>
       <c r="K39" t="n">
-        <v>71.71701949878528</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>96.43238314602944</v>
+        <v>96.09223318569339</v>
       </c>
       <c r="M39" t="n">
         <v>112.5320427097489</v>
@@ -33991,22 +33991,22 @@
         <v>105.6694775986801</v>
       </c>
       <c r="P39" t="n">
-        <v>68.57768508414122</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483871</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>27.5749281045388</v>
       </c>
       <c r="S39" t="n">
-        <v>8.249492831500541</v>
+        <v>8.249492831500543</v>
       </c>
       <c r="T39" t="n">
         <v>1.790149684096576</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02921898287426405</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34055,16 +34055,16 @@
         <v>26.32461110403721</v>
       </c>
       <c r="K40" t="n">
-        <v>43.25942264492677</v>
+        <v>43.25942264492678</v>
       </c>
       <c r="L40" t="n">
-        <v>55.35716728756907</v>
+        <v>55.35716728756908</v>
       </c>
       <c r="M40" t="n">
         <v>58.36637125715747</v>
       </c>
       <c r="N40" t="n">
-        <v>56.97854940391651</v>
+        <v>56.97854940391652</v>
       </c>
       <c r="O40" t="n">
         <v>52.62891261997824</v>
@@ -34076,10 +34076,10 @@
         <v>31.17860265903135</v>
       </c>
       <c r="R40" t="n">
-        <v>16.74187045397557</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S40" t="n">
-        <v>6.488913396739015</v>
+        <v>6.488913396739016</v>
       </c>
       <c r="T40" t="n">
         <v>1.590917734203097</v>
@@ -34122,25 +34122,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8300736173325255</v>
+        <v>0.8300736173325256</v>
       </c>
       <c r="H41" t="n">
         <v>8.50099143350673</v>
       </c>
       <c r="I41" t="n">
-        <v>32.00141313221222</v>
+        <v>32.00141313221223</v>
       </c>
       <c r="J41" t="n">
-        <v>70.4514606790765</v>
+        <v>70.45146067907652</v>
       </c>
       <c r="K41" t="n">
         <v>105.5884769007623</v>
       </c>
       <c r="L41" t="n">
-        <v>130.9918423672026</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M41" t="n">
-        <v>145.7536640594399</v>
+        <v>145.75366405944</v>
       </c>
       <c r="N41" t="n">
         <v>148.112110724686</v>
@@ -34149,22 +34149,22 @@
         <v>139.8580661923357</v>
       </c>
       <c r="P41" t="n">
-        <v>119.3656237644389</v>
+        <v>119.365623764439</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.63861234371782</v>
+        <v>89.63861234371784</v>
       </c>
       <c r="R41" t="n">
-        <v>52.1421118647643</v>
+        <v>52.14211186476431</v>
       </c>
       <c r="S41" t="n">
         <v>18.91530255496495</v>
       </c>
       <c r="T41" t="n">
-        <v>3.633647259873132</v>
+        <v>3.633647259873133</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06640588938660202</v>
+        <v>0.06640588938660204</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4441285396888134</v>
+        <v>0.4441285396888135</v>
       </c>
       <c r="H42" t="n">
-        <v>4.289346685941962</v>
+        <v>4.289346685941963</v>
       </c>
       <c r="I42" t="n">
-        <v>15.29126770419818</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J42" t="n">
-        <v>41.96040733963478</v>
+        <v>41.96040733963479</v>
       </c>
       <c r="K42" t="n">
-        <v>71.71701949878528</v>
+        <v>71.71701949878529</v>
       </c>
       <c r="L42" t="n">
-        <v>96.43238314602944</v>
+        <v>96.43238314602945</v>
       </c>
       <c r="M42" t="n">
         <v>112.5320427097489</v>
       </c>
       <c r="N42" t="n">
-        <v>95.55544517101617</v>
+        <v>111.7868318455221</v>
       </c>
       <c r="O42" t="n">
         <v>105.6694775986801</v>
       </c>
       <c r="P42" t="n">
-        <v>84.80907175864719</v>
+        <v>68.57768508414125</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483871</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>27.5749281045388</v>
       </c>
       <c r="S42" t="n">
-        <v>8.249492831500541</v>
+        <v>8.249492831500543</v>
       </c>
       <c r="T42" t="n">
         <v>1.790149684096576</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02921898287426405</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34292,16 +34292,16 @@
         <v>26.32461110403721</v>
       </c>
       <c r="K43" t="n">
-        <v>43.25942264492677</v>
+        <v>43.25942264492678</v>
       </c>
       <c r="L43" t="n">
-        <v>55.35716728756907</v>
+        <v>55.35716728756908</v>
       </c>
       <c r="M43" t="n">
         <v>58.36637125715747</v>
       </c>
       <c r="N43" t="n">
-        <v>56.97854940391651</v>
+        <v>56.97854940391652</v>
       </c>
       <c r="O43" t="n">
         <v>52.62891261997824</v>
@@ -34313,10 +34313,10 @@
         <v>31.17860265903135</v>
       </c>
       <c r="R43" t="n">
-        <v>16.74187045397557</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S43" t="n">
-        <v>6.488913396739015</v>
+        <v>6.488913396739016</v>
       </c>
       <c r="T43" t="n">
         <v>1.590917734203097</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8929862354561848</v>
+        <v>0.8300736173325256</v>
       </c>
       <c r="H44" t="n">
-        <v>9.145295283865655</v>
+        <v>8.50099143350673</v>
       </c>
       <c r="I44" t="n">
-        <v>34.4268518424246</v>
+        <v>32.00141313221223</v>
       </c>
       <c r="J44" t="n">
-        <v>75.79109050154943</v>
+        <v>70.45146067907652</v>
       </c>
       <c r="K44" t="n">
-        <v>113.5911978484098</v>
+        <v>105.5884769007623</v>
       </c>
       <c r="L44" t="n">
-        <v>140.919925351752</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M44" t="n">
-        <v>156.8005693165459</v>
+        <v>145.75366405944</v>
       </c>
       <c r="N44" t="n">
-        <v>159.3377664580358</v>
+        <v>148.112110724686</v>
       </c>
       <c r="O44" t="n">
-        <v>150.4581345792184</v>
+        <v>139.8580661923357</v>
       </c>
       <c r="P44" t="n">
-        <v>128.4125368913938</v>
+        <v>119.365623764439</v>
       </c>
       <c r="Q44" t="n">
-        <v>96.43246733411915</v>
+        <v>89.63861234371784</v>
       </c>
       <c r="R44" t="n">
-        <v>56.09404661297462</v>
+        <v>52.14211186476431</v>
       </c>
       <c r="S44" t="n">
-        <v>20.34892384045783</v>
+        <v>18.91530255496495</v>
       </c>
       <c r="T44" t="n">
-        <v>3.909047245709451</v>
+        <v>3.633647259873133</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07143889883649478</v>
+        <v>0.06640588938660204</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4777897579612978</v>
+        <v>0.4441285396888135</v>
       </c>
       <c r="H45" t="n">
-        <v>4.614443188731482</v>
+        <v>4.289346685941963</v>
       </c>
       <c r="I45" t="n">
-        <v>16.45021754384293</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J45" t="n">
-        <v>45.14065428177332</v>
+        <v>41.96040733963479</v>
       </c>
       <c r="K45" t="n">
-        <v>77.15256806518026</v>
+        <v>71.71701949878529</v>
       </c>
       <c r="L45" t="n">
-        <v>103.7411489819037</v>
+        <v>96.43238314602945</v>
       </c>
       <c r="M45" t="n">
-        <v>121.0610277080007</v>
+        <v>112.5320427097489</v>
       </c>
       <c r="N45" t="n">
-        <v>124.2651528831009</v>
+        <v>111.7868318455221</v>
       </c>
       <c r="O45" t="n">
-        <v>113.6783377198532</v>
+        <v>89.43809092417413</v>
       </c>
       <c r="P45" t="n">
-        <v>91.23688807946922</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.9894434899369</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>29.66487637587778</v>
+        <v>27.5749281045388</v>
       </c>
       <c r="S45" t="n">
-        <v>8.874735197219714</v>
+        <v>8.249492831500543</v>
       </c>
       <c r="T45" t="n">
-        <v>1.925828015642248</v>
+        <v>1.790149684096576</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03143353670798013</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4005628830765553</v>
+        <v>0.3723424484305122</v>
       </c>
       <c r="H46" t="n">
-        <v>3.561368178626104</v>
+        <v>3.310462859682193</v>
       </c>
       <c r="I46" t="n">
-        <v>12.04601833833859</v>
+        <v>11.19735290371032</v>
       </c>
       <c r="J46" t="n">
-        <v>28.31979583351246</v>
+        <v>26.32461110403721</v>
       </c>
       <c r="K46" t="n">
-        <v>46.53812405198524</v>
+        <v>43.25942264492678</v>
       </c>
       <c r="L46" t="n">
-        <v>59.55277627121806</v>
+        <v>55.35716728756908</v>
       </c>
       <c r="M46" t="n">
-        <v>62.79005266262766</v>
+        <v>58.36637125715747</v>
       </c>
       <c r="N46" t="n">
-        <v>61.29704555297873</v>
+        <v>56.97854940391652</v>
       </c>
       <c r="O46" t="n">
-        <v>56.61774278249349</v>
+        <v>52.62891261997824</v>
       </c>
       <c r="P46" t="n">
-        <v>48.44625996773173</v>
+        <v>45.03312667199575</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.54167923652865</v>
+        <v>31.17860265903135</v>
       </c>
       <c r="R46" t="n">
-        <v>18.01076381542402</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S46" t="n">
-        <v>6.980718607797784</v>
+        <v>6.488913396739016</v>
       </c>
       <c r="T46" t="n">
-        <v>1.711495954963463</v>
+        <v>1.590917734203097</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0218488845314485</v>
+        <v>0.02030958809620978</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>9.469850083724296</v>
       </c>
       <c r="L17" t="n">
-        <v>8.012093958476942</v>
+        <v>26.84436171580583</v>
       </c>
       <c r="M17" t="n">
-        <v>20.16697784598549</v>
+        <v>42.82520371799684</v>
       </c>
       <c r="N17" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="O17" t="n">
-        <v>15.67819014434953</v>
+        <v>37.41991220847775</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>17.8229835237334</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>18.9501304725631</v>
+        <v>33.94108615658635</v>
       </c>
       <c r="M18" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="N18" t="n">
-        <v>13.14990114845572</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="O18" t="n">
-        <v>22.38076769552775</v>
+        <v>40.93040513096592</v>
       </c>
       <c r="P18" t="n">
-        <v>11.75723032779312</v>
+        <v>14.1051926115918</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>38.80864393332273</v>
       </c>
       <c r="K19" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="L19" t="n">
-        <v>21.4764942532842</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="M19" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059413</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.762412615227191</v>
       </c>
       <c r="O19" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>22.38076769552775</v>
+        <v>9.469850083724296</v>
       </c>
       <c r="L20" t="n">
-        <v>8.012093958476942</v>
+        <v>26.84436171580583</v>
       </c>
       <c r="M20" t="n">
-        <v>20.16697784598549</v>
+        <v>42.82520371799684</v>
       </c>
       <c r="N20" t="n">
-        <v>22.38076769552775</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="O20" t="n">
-        <v>15.67819014434953</v>
+        <v>37.41991220847775</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>17.8229835237334</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>18.9501304725631</v>
+        <v>33.94108615658635</v>
       </c>
       <c r="M21" t="n">
-        <v>22.38076769552775</v>
+        <v>34.56954300130501</v>
       </c>
       <c r="N21" t="n">
-        <v>13.14990114845572</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="O21" t="n">
-        <v>22.38076769552775</v>
+        <v>40.93040513096592</v>
       </c>
       <c r="P21" t="n">
-        <v>11.75723032779312</v>
+        <v>24.94127696088077</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>22.38076769552775</v>
+        <v>38.80864393332273</v>
       </c>
       <c r="K22" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="N22" t="n">
-        <v>21.4764942532842</v>
+        <v>45.40562735059409</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>22.38076769552775</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4.762412615227163</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>16.45208722754519</v>
+        <v>16.45208722754522</v>
       </c>
       <c r="L23" t="n">
-        <v>35.5064443043578</v>
+        <v>35.50644430435783</v>
       </c>
       <c r="M23" t="n">
-        <v>52.46343960239444</v>
+        <v>52.4634396023945</v>
       </c>
       <c r="N23" t="n">
-        <v>55.19981996806662</v>
+        <v>55.19981996806668</v>
       </c>
       <c r="O23" t="n">
-        <v>46.66829056655253</v>
+        <v>46.66829056655256</v>
       </c>
       <c r="P23" t="n">
-        <v>25.71626048355475</v>
+        <v>25.71626048355479</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>15.89123671416989</v>
+        <v>15.8912367141699</v>
       </c>
       <c r="L24" t="n">
-        <v>40.31785933518037</v>
+        <v>40.3178593351804</v>
       </c>
       <c r="M24" t="n">
-        <v>54.96775897133146</v>
+        <v>38.73637229682551</v>
       </c>
       <c r="N24" t="n">
-        <v>42.3620517772662</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="O24" t="n">
-        <v>47.91799859868008</v>
+        <v>47.91799859868011</v>
       </c>
       <c r="P24" t="n">
-        <v>30.54943675584343</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.54940848303774</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>13.57518955573989</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="M25" t="n">
-        <v>2.101428758377416</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="N25" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>56.22602679715509</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>16.45208722754521</v>
+        <v>16.45208722754522</v>
       </c>
       <c r="L26" t="n">
-        <v>35.5064443043578</v>
+        <v>35.50644430435783</v>
       </c>
       <c r="M26" t="n">
         <v>52.46343960239447</v>
       </c>
       <c r="N26" t="n">
-        <v>55.19981996806665</v>
+        <v>55.19981996806668</v>
       </c>
       <c r="O26" t="n">
         <v>46.66829056655256</v>
       </c>
       <c r="P26" t="n">
-        <v>25.71626048355476</v>
+        <v>25.71626048355478</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>15.8912367141699</v>
       </c>
       <c r="L27" t="n">
-        <v>40.31785933518039</v>
+        <v>40.3178593351804</v>
       </c>
       <c r="M27" t="n">
-        <v>54.96775897133147</v>
+        <v>38.73637229682551</v>
       </c>
       <c r="N27" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="O27" t="n">
-        <v>47.91799859868009</v>
+        <v>47.91799859868011</v>
       </c>
       <c r="P27" t="n">
-        <v>30.20928679550737</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>58.59343845177212</v>
+        <v>0.7288733936675698</v>
       </c>
       <c r="M28" t="n">
-        <v>2.101428758377423</v>
+        <v>14.94774492044979</v>
       </c>
       <c r="N28" t="n">
-        <v>13.57518955573988</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="P28" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.59343845177212</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>16.45208722754521</v>
+        <v>16.45208722754522</v>
       </c>
       <c r="L29" t="n">
-        <v>35.5064443043578</v>
+        <v>35.50644430435783</v>
       </c>
       <c r="M29" t="n">
-        <v>52.46343960239447</v>
+        <v>52.4634396023945</v>
       </c>
       <c r="N29" t="n">
-        <v>55.19981996806665</v>
+        <v>55.19981996806668</v>
       </c>
       <c r="O29" t="n">
         <v>46.66829056655256</v>
       </c>
       <c r="P29" t="n">
-        <v>25.71626048355476</v>
+        <v>25.71626048355479</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>15.8912367141699</v>
       </c>
       <c r="L30" t="n">
-        <v>40.31785933518039</v>
+        <v>40.3178593351804</v>
       </c>
       <c r="M30" t="n">
-        <v>54.96775897133147</v>
+        <v>54.96775897133148</v>
       </c>
       <c r="N30" t="n">
-        <v>58.25328849143604</v>
+        <v>42.3620517772662</v>
       </c>
       <c r="O30" t="n">
-        <v>47.91799859868009</v>
+        <v>47.91799859868011</v>
       </c>
       <c r="P30" t="n">
-        <v>30.54943675584344</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>40.54940848303774</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="L31" t="n">
-        <v>54.12459803877763</v>
+        <v>0.7288733936675698</v>
       </c>
       <c r="M31" t="n">
-        <v>2.101428758377423</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="N31" t="n">
-        <v>58.59343845177212</v>
+        <v>5.265903895497075</v>
       </c>
       <c r="O31" t="n">
-        <v>58.59343845177212</v>
+        <v>9.681841024952734</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.59343845177212</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>16.45208722754521</v>
+        <v>16.45208722754522</v>
       </c>
       <c r="L32" t="n">
-        <v>35.5064443043578</v>
+        <v>35.50644430435783</v>
       </c>
       <c r="M32" t="n">
-        <v>52.46343960239447</v>
+        <v>52.4634396023945</v>
       </c>
       <c r="N32" t="n">
-        <v>55.19981996806665</v>
+        <v>55.19981996806668</v>
       </c>
       <c r="O32" t="n">
         <v>46.66829056655256</v>
       </c>
       <c r="P32" t="n">
-        <v>25.71626048355476</v>
+        <v>25.71626048355479</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>15.89123671416989</v>
+        <v>15.8912367141699</v>
       </c>
       <c r="L33" t="n">
-        <v>40.31785933518039</v>
+        <v>40.3178593351804</v>
       </c>
       <c r="M33" t="n">
-        <v>54.96775897133147</v>
+        <v>54.96775897133148</v>
       </c>
       <c r="N33" t="n">
-        <v>42.36205177726617</v>
+        <v>42.3620517772662</v>
       </c>
       <c r="O33" t="n">
-        <v>47.91799859868009</v>
+        <v>47.91799859868011</v>
       </c>
       <c r="P33" t="n">
-        <v>30.54943675584344</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>40.54940848303774</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="L34" t="n">
-        <v>58.59343845177213</v>
+        <v>8.309285660242859</v>
       </c>
       <c r="M34" t="n">
-        <v>58.59343845177213</v>
+        <v>2.10142875837743</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67661831411732</v>
+        <v>5.265903895497075</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>16.45208722754521</v>
+        <v>16.45208722754522</v>
       </c>
       <c r="L35" t="n">
-        <v>35.5064443043578</v>
+        <v>35.50644430435783</v>
       </c>
       <c r="M35" t="n">
-        <v>52.46343960239447</v>
+        <v>52.4634396023945</v>
       </c>
       <c r="N35" t="n">
-        <v>55.19981996806665</v>
+        <v>55.19981996806668</v>
       </c>
       <c r="O35" t="n">
         <v>46.66829056655256</v>
       </c>
       <c r="P35" t="n">
-        <v>25.71626048355476</v>
+        <v>25.71626048355479</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>15.89123671416989</v>
+        <v>15.8912367141699</v>
       </c>
       <c r="L36" t="n">
-        <v>40.31785933518039</v>
+        <v>40.3178593351804</v>
       </c>
       <c r="M36" t="n">
-        <v>54.96775897133147</v>
+        <v>54.96775897133148</v>
       </c>
       <c r="N36" t="n">
-        <v>42.36205177726617</v>
+        <v>42.3620517772662</v>
       </c>
       <c r="O36" t="n">
-        <v>47.91799859868009</v>
+        <v>47.91799859868011</v>
       </c>
       <c r="P36" t="n">
-        <v>30.54943675584344</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>40.54940848303774</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67661831411732</v>
+        <v>14.9477449204498</v>
       </c>
       <c r="L37" t="n">
-        <v>58.59343845177213</v>
+        <v>0.7288733936675698</v>
       </c>
       <c r="M37" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="N37" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>16.45208722754521</v>
+        <v>16.45208722754522</v>
       </c>
       <c r="L38" t="n">
-        <v>35.5064443043578</v>
+        <v>35.50644430435783</v>
       </c>
       <c r="M38" t="n">
-        <v>52.46343960239447</v>
+        <v>52.4634396023945</v>
       </c>
       <c r="N38" t="n">
-        <v>55.19981996806665</v>
+        <v>55.19981996806668</v>
       </c>
       <c r="O38" t="n">
         <v>46.66829056655256</v>
       </c>
       <c r="P38" t="n">
-        <v>25.71626048355476</v>
+        <v>25.71626048355479</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>15.89123671416989</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>40.31785933518039</v>
+        <v>39.97770937484434</v>
       </c>
       <c r="M39" t="n">
-        <v>54.96775897133147</v>
+        <v>54.96775897133148</v>
       </c>
       <c r="N39" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="O39" t="n">
-        <v>47.91799859868009</v>
+        <v>47.91799859868011</v>
       </c>
       <c r="P39" t="n">
-        <v>14.31805008133748</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.54940848303774</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="L40" t="n">
-        <v>13.5751895557399</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="M40" t="n">
-        <v>2.101428758377423</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="N40" t="n">
-        <v>58.59343845177213</v>
+        <v>56.22602679715511</v>
       </c>
       <c r="O40" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>16.45208722754521</v>
+        <v>16.45208722754522</v>
       </c>
       <c r="L41" t="n">
-        <v>35.5064443043578</v>
+        <v>35.50644430435783</v>
       </c>
       <c r="M41" t="n">
-        <v>52.46343960239447</v>
+        <v>52.4634396023945</v>
       </c>
       <c r="N41" t="n">
-        <v>55.19981996806665</v>
+        <v>55.19981996806668</v>
       </c>
       <c r="O41" t="n">
         <v>46.66829056655256</v>
       </c>
       <c r="P41" t="n">
-        <v>25.71626048355476</v>
+        <v>25.71626048355479</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>15.89123671416989</v>
+        <v>15.8912367141699</v>
       </c>
       <c r="L42" t="n">
-        <v>40.31785933518039</v>
+        <v>40.3178593351804</v>
       </c>
       <c r="M42" t="n">
-        <v>54.96775897133147</v>
+        <v>54.96775897133148</v>
       </c>
       <c r="N42" t="n">
-        <v>42.36205177726617</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="O42" t="n">
-        <v>47.91799859868009</v>
+        <v>47.91799859868011</v>
       </c>
       <c r="P42" t="n">
-        <v>30.54943675584344</v>
+        <v>14.31805008133751</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>40.54940848303774</v>
       </c>
       <c r="K43" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="L43" t="n">
-        <v>50.96012290165798</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="M43" t="n">
-        <v>58.59343845177213</v>
+        <v>10.41071441862027</v>
       </c>
       <c r="N43" t="n">
-        <v>5.265903895497068</v>
+        <v>5.265903895497075</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.467499168241488</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>24.45480817519264</v>
+        <v>16.45208722754522</v>
       </c>
       <c r="L44" t="n">
-        <v>45.43452728890718</v>
+        <v>35.50644430435783</v>
       </c>
       <c r="M44" t="n">
-        <v>63.51034485950048</v>
+        <v>52.4634396023945</v>
       </c>
       <c r="N44" t="n">
-        <v>66.42547570141652</v>
+        <v>55.19981996806668</v>
       </c>
       <c r="O44" t="n">
-        <v>57.26835895343525</v>
+        <v>46.66829056655256</v>
       </c>
       <c r="P44" t="n">
-        <v>34.76317361050965</v>
+        <v>25.71626048355479</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.398662934967106</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>21.32678528056487</v>
+        <v>15.8912367141699</v>
       </c>
       <c r="L45" t="n">
-        <v>47.62662517105467</v>
+        <v>40.3178593351804</v>
       </c>
       <c r="M45" t="n">
-        <v>63.49674396958331</v>
+        <v>54.96775897133148</v>
       </c>
       <c r="N45" t="n">
-        <v>71.07175948935088</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="O45" t="n">
-        <v>55.92685871985316</v>
+        <v>31.68661192417413</v>
       </c>
       <c r="P45" t="n">
-        <v>36.97725307666548</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q45" t="n">
-        <v>4.296824985098176</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.54940848303774</v>
       </c>
       <c r="K46" t="n">
-        <v>75.94786280235938</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="L46" t="n">
-        <v>62.75201753103588</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="M46" t="n">
-        <v>75.94786280235938</v>
+        <v>2.10142875837743</v>
       </c>
       <c r="N46" t="n">
-        <v>9.584400044559288</v>
+        <v>5.265903895497075</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5428447094971673</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>75.94786280235938</v>
+        <v>8.30928566024283</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>58.59343845177215</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
